--- a/設計書/05_基本設計書_画面遷移図_五十嵐侑瑞樹_2.0.xlsx
+++ b/設計書/05_基本設計書_画面遷移図_五十嵐侑瑞樹_2.0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edu\Desktop\hanayoriRepo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edu\Desktop\hanayoriRepo\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>関係者外秘</t>
     <rPh sb="0" eb="3">
@@ -755,31 +755,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Var.3.0　花より漢気チーム　更新日:06/08　編集者:五十嵐　侑瑞樹　</t>
-    <rPh sb="8" eb="9">
-      <t>ハナ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>オトコギ</t>
-    </rPh>
-    <rPh sb="17" eb="20">
-      <t>コウシンビ</t>
-    </rPh>
-    <rPh sb="27" eb="30">
-      <t>ヘンシュウシャ</t>
-    </rPh>
-    <rPh sb="31" eb="34">
-      <t>イカラシ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ユウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ミズキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Copyright © 2017 株式会社システムシェアード. All rights reserved.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -791,12 +766,46 @@
     <t>・ナビゲーションバーには、トップ(2-1-1-2トップ画面)、新着一覧(2-2-1-2商品一覧画面)、買い物かご(4-1-1-2買い物かご画面)、</t>
     <phoneticPr fontId="11"/>
   </si>
+  <si>
+    <t>Ver.3.1</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>花より漢気チーム</t>
+    <rPh sb="0" eb="1">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>オトコギ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>更新日：2021年6月8日</t>
+    <rPh sb="0" eb="3">
+      <t>コウシンビ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集者：五十嵐　侑瑞樹</t>
+    <phoneticPr fontId="11"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -914,6 +923,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -987,13 +1003,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1040,7 +1056,7 @@
         <xdr:cNvPr id="274" name="カギ線コネクタ 273">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000012010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1101,7 +1117,7 @@
         <xdr:cNvPr id="2" name="Rounded Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1201,7 +1217,7 @@
         <xdr:cNvPr id="5" name="Rounded Rectangle 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1293,7 +1309,7 @@
         <xdr:cNvPr id="6" name="Rounded Rectangle 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1398,7 +1414,7 @@
         <xdr:cNvPr id="36" name="Rounded Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000024000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1511,7 +1527,7 @@
         <xdr:cNvPr id="70" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000046000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000046000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1603,7 +1619,7 @@
         <xdr:cNvPr id="78" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1695,7 +1711,7 @@
         <xdr:cNvPr id="79" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1787,7 +1803,7 @@
         <xdr:cNvPr id="126" name="直線矢印コネクタ 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00007E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1848,7 +1864,7 @@
         <xdr:cNvPr id="129" name="直線矢印コネクタ 128">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000081000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000081000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1909,7 +1925,7 @@
         <xdr:cNvPr id="289" name="直線矢印コネクタ 288">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000021010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1967,7 +1983,7 @@
         <xdr:cNvPr id="226" name="カギ線コネクタ 225">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000E2000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000E2000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2023,7 +2039,7 @@
         <xdr:cNvPr id="10" name="テキスト ボックス 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2110,7 +2126,7 @@
         <xdr:cNvPr id="32" name="直線矢印コネクタ 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000020000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2163,7 +2179,7 @@
         <xdr:cNvPr id="33" name="テキスト ボックス 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000021000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2310,7 +2326,7 @@
         <xdr:cNvPr id="38" name="テキスト ボックス 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000026000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2392,7 +2408,7 @@
         <xdr:cNvPr id="50" name="テキスト ボックス 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000032000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2463,7 +2479,7 @@
         <xdr:cNvPr id="53" name="テキスト ボックス 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000035000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2534,7 +2550,7 @@
         <xdr:cNvPr id="58" name="テキスト ボックス 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00003A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2610,7 +2626,7 @@
         <xdr:cNvPr id="71" name="カギ線コネクタ 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000047000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000047000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2674,7 +2690,7 @@
         <xdr:cNvPr id="76" name="直線矢印コネクタ 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2727,7 +2743,7 @@
         <xdr:cNvPr id="80" name="テキスト ボックス 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000050000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000050000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2798,7 +2814,7 @@
         <xdr:cNvPr id="84" name="テキスト ボックス 83">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000054000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000054000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2881,7 +2897,7 @@
         <xdr:cNvPr id="85" name="直線矢印コネクタ 84">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000055000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000055000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2934,7 +2950,7 @@
         <xdr:cNvPr id="88" name="テキスト ボックス 87">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000058000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000058000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3011,7 +3027,7 @@
         <xdr:cNvPr id="93" name="テキスト ボックス 92">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00005D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3087,7 +3103,7 @@
         <xdr:cNvPr id="96" name="直線矢印コネクタ 95">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000060000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000060000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3140,7 +3156,7 @@
         <xdr:cNvPr id="97" name="テキスト ボックス 96">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000061000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000061000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3216,7 +3232,7 @@
         <xdr:cNvPr id="98" name="カギ線コネクタ 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000062000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000062000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3271,7 +3287,7 @@
         <xdr:cNvPr id="106" name="テキスト ボックス 105">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00006A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3347,7 +3363,7 @@
         <xdr:cNvPr id="109" name="直線矢印コネクタ 108">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00006D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3400,7 +3416,7 @@
         <xdr:cNvPr id="110" name="テキスト ボックス 109">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00006E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3476,7 +3492,7 @@
         <xdr:cNvPr id="37" name="直線矢印コネクタ 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000025000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3532,7 +3548,7 @@
         <xdr:cNvPr id="39" name="テキスト ボックス 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000027000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3606,7 +3622,7 @@
         <xdr:cNvPr id="40" name="テキスト ボックス 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000028000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3681,7 +3697,7 @@
         <xdr:cNvPr id="41" name="テキスト ボックス 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3809,7 +3825,7 @@
         <xdr:cNvPr id="64" name="円/楕円 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000091000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000091000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3871,7 +3887,7 @@
         <xdr:cNvPr id="65" name="直線矢印コネクタ 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000098000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000098000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3929,7 +3945,7 @@
         <xdr:cNvPr id="66" name="Rounded Rectangle 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4021,7 +4037,7 @@
         <xdr:cNvPr id="67" name="直線矢印コネクタ 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000098000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000098000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4074,7 +4090,7 @@
         <xdr:cNvPr id="68" name="テキスト ボックス 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000075000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000075000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4150,7 +4166,7 @@
         <xdr:cNvPr id="69" name="直線矢印コネクタ 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000098000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000098000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4203,7 +4219,7 @@
         <xdr:cNvPr id="73" name="テキスト ボックス 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A8000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A8000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4273,7 +4289,7 @@
         <xdr:cNvPr id="74" name="テキスト ボックス 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000077000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000077000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4349,7 +4365,7 @@
         <xdr:cNvPr id="75" name="Rounded Rectangle 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4441,7 +4457,7 @@
         <xdr:cNvPr id="77" name="直線矢印コネクタ 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000098000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000098000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4499,7 +4515,7 @@
         <xdr:cNvPr id="81" name="Rounded Rectangle 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4591,7 +4607,7 @@
         <xdr:cNvPr id="82" name="直線矢印コネクタ 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000098000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000098000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4649,7 +4665,7 @@
         <xdr:cNvPr id="83" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000098000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000098000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4702,7 +4718,7 @@
         <xdr:cNvPr id="86" name="テキスト ボックス 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000075000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000075000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4773,7 +4789,7 @@
         <xdr:cNvPr id="87" name="テキスト ボックス 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000075000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000075000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4843,7 +4859,7 @@
         <xdr:cNvPr id="89" name="テキスト ボックス 88">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000075000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000075000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4919,7 +4935,7 @@
         <xdr:cNvPr id="92" name="円/楕円 91">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000091000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000091000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5033,7 +5049,7 @@
         <xdr:cNvPr id="99" name="円/楕円 98">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000091000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000091000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5094,7 +5110,7 @@
         <xdr:cNvPr id="102" name="円/楕円 101">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000091000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000091000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5155,7 +5171,7 @@
         <xdr:cNvPr id="103" name="円/楕円 102">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000091000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000091000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5221,7 +5237,7 @@
         <xdr:cNvPr id="2" name="Rounded Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5321,7 +5337,7 @@
         <xdr:cNvPr id="3" name="Rounded Rectangle 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5413,7 +5429,7 @@
         <xdr:cNvPr id="4" name="Rounded Rectangle 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5505,7 +5521,7 @@
         <xdr:cNvPr id="5" name="Rounded Rectangle 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5608,7 +5624,7 @@
         <xdr:cNvPr id="6" name="Rounded Rectangle 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5711,7 +5727,7 @@
         <xdr:cNvPr id="7" name="Rounded Rectangle 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5803,7 +5819,7 @@
         <xdr:cNvPr id="8" name="Rounded Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000013000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5895,7 +5911,7 @@
         <xdr:cNvPr id="9" name="Rounded Rectangle 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000014000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5987,7 +6003,7 @@
         <xdr:cNvPr id="10" name="Rounded Rectangle 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00002E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6079,7 +6095,7 @@
         <xdr:cNvPr id="11" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000033000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6171,7 +6187,7 @@
         <xdr:cNvPr id="12" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000036000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6263,7 +6279,7 @@
         <xdr:cNvPr id="13" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000037000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6355,7 +6371,7 @@
         <xdr:cNvPr id="14" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000038000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6447,7 +6463,7 @@
         <xdr:cNvPr id="15" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00003B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6539,7 +6555,7 @@
         <xdr:cNvPr id="16" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00003C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6631,7 +6647,7 @@
         <xdr:cNvPr id="17" name="直線矢印コネクタ 128">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000040000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6686,7 +6702,7 @@
         <xdr:cNvPr id="18" name="テキスト ボックス 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000043000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000043000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6768,7 +6784,7 @@
         <xdr:cNvPr id="19" name="テキスト ボックス 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000044000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000044000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6844,7 +6860,7 @@
         <xdr:cNvPr id="20" name="直線矢印コネクタ 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00004B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6905,7 +6921,7 @@
         <xdr:cNvPr id="21" name="直線矢印コネクタ 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00004C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6958,7 +6974,7 @@
         <xdr:cNvPr id="22" name="テキスト ボックス 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00004D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7028,7 +7044,7 @@
         <xdr:cNvPr id="23" name="テキスト ボックス 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00005A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7111,7 +7127,7 @@
         <xdr:cNvPr id="24" name="直線矢印コネクタ 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00005B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7169,7 +7185,7 @@
         <xdr:cNvPr id="25" name="直線矢印コネクタ 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00005D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7222,7 +7238,7 @@
         <xdr:cNvPr id="26" name="テキスト ボックス 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00005E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7293,7 +7309,7 @@
         <xdr:cNvPr id="27" name="テキスト ボックス 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00005F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7369,7 +7385,7 @@
         <xdr:cNvPr id="28" name="Rounded Rectangle 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000062000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000062000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7456,7 +7472,7 @@
         <xdr:cNvPr id="29" name="テキスト ボックス 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000063000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000063000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7539,7 +7555,7 @@
         <xdr:cNvPr id="30" name="直線矢印コネクタ 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000066000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000066000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7592,7 +7608,7 @@
         <xdr:cNvPr id="31" name="テキスト ボックス 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000068000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000068000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7668,7 +7684,7 @@
         <xdr:cNvPr id="32" name="直線矢印コネクタ 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000069000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000069000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7721,7 +7737,7 @@
         <xdr:cNvPr id="33" name="テキスト ボックス 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00006A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7792,7 +7808,7 @@
         <xdr:cNvPr id="34" name="テキスト ボックス 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000073000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000073000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7871,7 +7887,7 @@
         <xdr:cNvPr id="35" name="直線矢印コネクタ 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000074000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000074000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7924,7 +7940,7 @@
         <xdr:cNvPr id="36" name="テキスト ボックス 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000075000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000075000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7995,7 +8011,7 @@
         <xdr:cNvPr id="37" name="テキスト ボックス 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000077000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000077000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8082,7 +8098,7 @@
         <xdr:cNvPr id="38" name="直線矢印コネクタ 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000079000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000079000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8140,7 +8156,7 @@
         <xdr:cNvPr id="39" name="直線矢印コネクタ 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00007C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8193,7 +8209,7 @@
         <xdr:cNvPr id="40" name="テキスト ボックス 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000080000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000080000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8264,7 +8280,7 @@
         <xdr:cNvPr id="41" name="テキスト ボックス 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000081000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000081000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8340,7 +8356,7 @@
         <xdr:cNvPr id="42" name="直線矢印コネクタ 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000088000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000088000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8396,7 +8412,7 @@
         <xdr:cNvPr id="43" name="テキスト ボックス 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00008A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00008A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8475,7 +8491,7 @@
         <xdr:cNvPr id="44" name="直線矢印コネクタ 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000093000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000093000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8528,7 +8544,7 @@
         <xdr:cNvPr id="45" name="テキスト ボックス 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000095000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000095000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8603,7 +8619,7 @@
         <xdr:cNvPr id="46" name="直線矢印コネクタ 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000096000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000096000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8661,7 +8677,7 @@
         <xdr:cNvPr id="47" name="直線矢印コネクタ 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000097000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000097000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8714,7 +8730,7 @@
         <xdr:cNvPr id="48" name="テキスト ボックス 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000099000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000099000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8785,7 +8801,7 @@
         <xdr:cNvPr id="49" name="テキスト ボックス 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00009A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8860,7 +8876,7 @@
         <xdr:cNvPr id="50" name="直線矢印コネクタ 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00009B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8918,7 +8934,7 @@
         <xdr:cNvPr id="51" name="直線矢印コネクタ 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00009C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8971,7 +8987,7 @@
         <xdr:cNvPr id="52" name="テキスト ボックス 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00009D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9042,7 +9058,7 @@
         <xdr:cNvPr id="53" name="テキスト ボックス 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00009E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9117,7 +9133,7 @@
         <xdr:cNvPr id="54" name="直線矢印コネクタ 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00009F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9175,7 +9191,7 @@
         <xdr:cNvPr id="55" name="直線矢印コネクタ 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A0000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A0000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9231,7 +9247,7 @@
         <xdr:cNvPr id="56" name="テキスト ボックス 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A1000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A1000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9307,7 +9323,7 @@
         <xdr:cNvPr id="57" name="直線矢印コネクタ 164">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A5000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A5000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9367,7 +9383,7 @@
         <xdr:cNvPr id="58" name="直線矢印コネクタ 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000AA000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9425,7 +9441,7 @@
         <xdr:cNvPr id="59" name="直線矢印コネクタ 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000AC000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AC000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9480,7 +9496,7 @@
         <xdr:cNvPr id="60" name="テキスト ボックス 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000AE000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AE000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9554,7 +9570,7 @@
         <xdr:cNvPr id="61" name="テキスト ボックス 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000B0000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B0000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9634,7 +9650,7 @@
         <xdr:cNvPr id="62" name="カギ線コネクタ 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000B3000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B3000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9692,7 +9708,7 @@
         <xdr:cNvPr id="63" name="テキスト ボックス 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000B6000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9768,7 +9784,7 @@
         <xdr:cNvPr id="64" name="カギ線コネクタ 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000BA000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9827,7 +9843,7 @@
         <xdr:cNvPr id="65" name="テキスト ボックス 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000BD000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BD000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9916,7 +9932,7 @@
         <xdr:cNvPr id="66" name="テキスト ボックス 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000064000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000064000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9992,7 +10008,7 @@
         <xdr:cNvPr id="67" name="直線矢印コネクタ 164">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000065000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000065000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10047,7 +10063,7 @@
         <xdr:cNvPr id="68" name="テキスト ボックス 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000067000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000067000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10122,7 +10138,7 @@
         <xdr:cNvPr id="69" name="円/楕円 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00006B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10179,7 +10195,7 @@
         <xdr:cNvPr id="70" name="テキスト ボックス 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00006C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10257,7 +10273,7 @@
         <xdr:cNvPr id="71" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00006D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10315,7 +10331,7 @@
         <xdr:cNvPr id="72" name="カギ線コネクタ 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000071000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000071000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10374,7 +10390,7 @@
         <xdr:cNvPr id="73" name="テキスト ボックス 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000072000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000072000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10469,7 +10485,7 @@
         <xdr:cNvPr id="74" name="テキスト ボックス 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000076000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000076000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10586,7 +10602,7 @@
         <xdr:cNvPr id="75" name="円/楕円 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000078000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000078000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10648,7 +10664,7 @@
         <xdr:cNvPr id="76" name="直線矢印コネクタ 128">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00007A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10709,7 +10725,7 @@
         <xdr:cNvPr id="77" name="円/楕円 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00007B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10771,7 +10787,7 @@
         <xdr:cNvPr id="78" name="直線矢印コネクタ 128">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00007D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10827,7 +10843,7 @@
         <xdr:cNvPr id="79" name="テキスト ボックス 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00007E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10924,7 +10940,7 @@
         <xdr:cNvPr id="80" name="テキスト ボックス 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000082000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000082000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11007,7 +11023,7 @@
         <xdr:cNvPr id="81" name="直線矢印コネクタ 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000083000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000083000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11060,7 +11076,7 @@
         <xdr:cNvPr id="82" name="テキスト ボックス 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000090000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000090000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11136,7 +11152,7 @@
         <xdr:cNvPr id="83" name="円/楕円 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000091000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000091000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11198,7 +11214,7 @@
         <xdr:cNvPr id="84" name="直線矢印コネクタ 83">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000094000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000094000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11259,7 +11275,7 @@
         <xdr:cNvPr id="85" name="直線矢印コネクタ 84">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000098000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000098000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11312,7 +11328,7 @@
         <xdr:cNvPr id="86" name="テキスト ボックス 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A2000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A2000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11402,7 +11418,7 @@
         <xdr:cNvPr id="87" name="円/楕円 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A3000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A3000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11464,7 +11480,7 @@
         <xdr:cNvPr id="88" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A4000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A4000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11524,7 +11540,7 @@
         <xdr:cNvPr id="89" name="円/楕円 88">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A6000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11586,7 +11602,7 @@
         <xdr:cNvPr id="90" name="直線矢印コネクタ 128">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A7000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A7000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11641,7 +11657,7 @@
         <xdr:cNvPr id="91" name="テキスト ボックス 90">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A8000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A8000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11717,7 +11733,7 @@
         <xdr:cNvPr id="92" name="直線矢印コネクタ 91">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A9000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A9000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11778,7 +11794,7 @@
         <xdr:cNvPr id="93" name="直線矢印コネクタ 92">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000070000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000070000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11831,7 +11847,7 @@
         <xdr:cNvPr id="94" name="テキスト ボックス 93">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00007F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11910,7 +11926,7 @@
         <xdr:cNvPr id="95" name="直線矢印コネクタ 94">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000061000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000061000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11963,7 +11979,7 @@
         <xdr:cNvPr id="96" name="テキスト ボックス 95">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000084000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000084000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12039,7 +12055,7 @@
         <xdr:cNvPr id="97" name="円/楕円 96">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000085000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000085000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12096,7 +12112,7 @@
         <xdr:cNvPr id="98" name="テキスト ボックス 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000063000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000063000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12179,7 +12195,7 @@
         <xdr:cNvPr id="99" name="直線矢印コネクタ 98">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A9000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A9000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12240,7 +12256,7 @@
         <xdr:cNvPr id="100" name="Rounded Rectangle 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000062000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000062000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12332,7 +12348,7 @@
         <xdr:cNvPr id="101" name="直線矢印コネクタ 100">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000070000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000070000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12385,7 +12401,7 @@
         <xdr:cNvPr id="102" name="テキスト ボックス 101">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000044000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000044000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12461,7 +12477,7 @@
         <xdr:cNvPr id="103" name="円/楕円 102">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A6000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12523,7 +12539,7 @@
         <xdr:cNvPr id="104" name="直線矢印コネクタ 103">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000070000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000070000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12583,7 +12599,7 @@
         <xdr:cNvPr id="105" name="円/楕円 104">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A6000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12640,7 +12656,7 @@
         <xdr:cNvPr id="106" name="テキスト ボックス 105">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A8000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A8000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12716,7 +12732,7 @@
         <xdr:cNvPr id="107" name="円/楕円 106">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A6000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12778,7 +12794,7 @@
         <xdr:cNvPr id="108" name="カギ線コネクタ 107">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000BA000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12837,7 +12853,7 @@
         <xdr:cNvPr id="109" name="テキスト ボックス 108">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000BD000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BD000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12912,7 +12928,7 @@
         <xdr:cNvPr id="110" name="円/楕円 109">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000091000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000091000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12974,7 +12990,7 @@
         <xdr:cNvPr id="111" name="直線矢印コネクタ 110">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000070000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000070000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13030,7 +13046,7 @@
         <xdr:cNvPr id="112" name="テキスト ボックス 111">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000090000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000090000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13106,7 +13122,7 @@
         <xdr:cNvPr id="113" name="直線矢印コネクタ 128">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00007A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13264,7 +13280,7 @@
         <xdr:cNvPr id="115" name="テキスト ボックス 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00004D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13334,7 +13350,7 @@
         <xdr:cNvPr id="116" name="テキスト ボックス 115">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000076000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000076000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13467,7 +13483,7 @@
         <xdr:cNvPr id="117" name="Rounded Rectangle 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13559,7 +13575,7 @@
         <xdr:cNvPr id="118" name="直線矢印コネクタ 117">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000098000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000098000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13617,7 +13633,7 @@
         <xdr:cNvPr id="119" name="Rounded Rectangle 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13709,7 +13725,7 @@
         <xdr:cNvPr id="120" name="直線矢印コネクタ 119">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000098000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000098000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13762,7 +13778,7 @@
         <xdr:cNvPr id="121" name="テキスト ボックス 120">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000075000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000075000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13838,7 +13854,7 @@
         <xdr:cNvPr id="122" name="直線矢印コネクタ 121">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000098000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000098000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13891,7 +13907,7 @@
         <xdr:cNvPr id="123" name="テキスト ボックス 122">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A8000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A8000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13961,7 +13977,7 @@
         <xdr:cNvPr id="124" name="テキスト ボックス 123">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000077000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000077000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14037,7 +14053,7 @@
         <xdr:cNvPr id="125" name="Rounded Rectangle 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14129,7 +14145,7 @@
         <xdr:cNvPr id="126" name="直線矢印コネクタ 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000098000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000098000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14187,7 +14203,7 @@
         <xdr:cNvPr id="127" name="Rounded Rectangle 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14279,7 +14295,7 @@
         <xdr:cNvPr id="128" name="直線矢印コネクタ 127">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000098000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000098000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14332,7 +14348,7 @@
         <xdr:cNvPr id="129" name="テキスト ボックス 128">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000075000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000075000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14403,7 +14419,7 @@
         <xdr:cNvPr id="130" name="テキスト ボックス 129">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000075000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000075000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14473,7 +14489,7 @@
         <xdr:cNvPr id="131" name="テキスト ボックス 130">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000075000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000075000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14598,7 +14614,7 @@
         <xdr:cNvPr id="133" name="テキスト ボックス 132">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14796,7 +14812,7 @@
         <xdr:cNvPr id="135" name="テキスト ボックス 134">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14872,7 +14888,7 @@
         <xdr:cNvPr id="72" name="テキスト ボックス 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000048000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000048000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14950,7 +14966,7 @@
         <xdr:cNvPr id="164" name="Rounded Rectangle 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000A4000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000A4000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15042,7 +15058,7 @@
         <xdr:cNvPr id="168" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000A8000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000A8000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15134,7 +15150,7 @@
         <xdr:cNvPr id="169" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000A9000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000A9000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15221,7 +15237,7 @@
         <xdr:cNvPr id="170" name="テキスト ボックス 169">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000AA000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000AA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15295,7 +15311,7 @@
         <xdr:cNvPr id="176" name="テキスト ボックス 175">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000B0000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000B0000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15373,7 +15389,7 @@
         <xdr:cNvPr id="183" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000B7000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000B7000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15436,7 +15452,7 @@
         <xdr:cNvPr id="186" name="グループ化 185">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000BA000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000BA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15455,7 +15471,7 @@
           <xdr:cNvPr id="187" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000BB000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000BB000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -15532,7 +15548,7 @@
           <xdr:cNvPr id="193" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000C1000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000C1000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -15609,7 +15625,7 @@
           <xdr:cNvPr id="195" name="テキスト ボックス 194">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000C3000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000C3000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -15669,7 +15685,7 @@
           <xdr:cNvPr id="197" name="直線矢印コネクタ 196">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000C5000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000C5000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -15731,7 +15747,7 @@
         <xdr:cNvPr id="204" name="直線矢印コネクタ 164">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000CC000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000CC000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15792,7 +15808,7 @@
         <xdr:cNvPr id="205" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000CD000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000CD000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15853,7 +15869,7 @@
         <xdr:cNvPr id="206" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000CE000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000CE000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15908,7 +15924,7 @@
         <xdr:cNvPr id="207" name="テキスト ボックス 206">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000CF000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000CF000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15984,7 +16000,7 @@
         <xdr:cNvPr id="208" name="直線矢印コネクタ 207">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D0000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D0000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16042,7 +16058,7 @@
         <xdr:cNvPr id="209" name="グループ化 208">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D1000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D1000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16061,7 +16077,7 @@
           <xdr:cNvPr id="210" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D2000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D2000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16138,7 +16154,7 @@
           <xdr:cNvPr id="211" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D3000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D3000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16215,7 +16231,7 @@
           <xdr:cNvPr id="212" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D4000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D4000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16292,7 +16308,7 @@
           <xdr:cNvPr id="213" name="テキスト ボックス 212">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D5000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D5000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16356,7 +16372,7 @@
           <xdr:cNvPr id="214" name="直線矢印コネクタ 213">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D6000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D6000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16402,7 +16418,7 @@
           <xdr:cNvPr id="217" name="テキスト ボックス 216">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D9000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D9000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16466,7 +16482,7 @@
           <xdr:cNvPr id="218" name="直線矢印コネクタ 217">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000DA000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000DA000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16509,7 +16525,7 @@
           <xdr:cNvPr id="219" name="テキスト ボックス 218">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000DB000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000DB000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16572,7 +16588,7 @@
           <xdr:cNvPr id="220" name="直線矢印コネクタ 219">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000DC000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000DC000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16626,7 +16642,7 @@
         <xdr:cNvPr id="241" name="テキスト ボックス 240">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000F1000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000F1000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16702,7 +16718,7 @@
         <xdr:cNvPr id="242" name="グループ化 241">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000F2000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000F2000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16721,7 +16737,7 @@
           <xdr:cNvPr id="243" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000F3000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000F3000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16798,7 +16814,7 @@
           <xdr:cNvPr id="254" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000FE000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000FE000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16875,7 +16891,7 @@
           <xdr:cNvPr id="255" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000FF000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000FF000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16952,7 +16968,7 @@
           <xdr:cNvPr id="260" name="テキスト ボックス 259">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004010000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17016,7 +17032,7 @@
           <xdr:cNvPr id="261" name="テキスト ボックス 260">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000005010000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17079,7 +17095,7 @@
           <xdr:cNvPr id="262" name="直線矢印コネクタ 261">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000006010000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17122,7 +17138,7 @@
           <xdr:cNvPr id="264" name="直線矢印コネクタ 263">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000008010000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17165,7 +17181,7 @@
           <xdr:cNvPr id="265" name="テキスト ボックス 264">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000009010000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17229,7 +17245,7 @@
           <xdr:cNvPr id="266" name="直線矢印コネクタ 265">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000A010000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17272,7 +17288,7 @@
           <xdr:cNvPr id="247" name="テキスト ボックス 246">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004010000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17365,7 +17381,7 @@
         <xdr:cNvPr id="267" name="テキスト ボックス 266">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000B010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17438,7 +17454,7 @@
         <xdr:cNvPr id="268" name="テキスト ボックス 267">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000C010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17517,7 +17533,7 @@
         <xdr:cNvPr id="269" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000D010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17575,7 +17591,7 @@
         <xdr:cNvPr id="270" name="円/楕円 269">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000E010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17637,7 +17653,7 @@
         <xdr:cNvPr id="271" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000F010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17698,7 +17714,7 @@
         <xdr:cNvPr id="272" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000010010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17758,7 +17774,7 @@
         <xdr:cNvPr id="273" name="円/楕円 272">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000011010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17815,7 +17831,7 @@
         <xdr:cNvPr id="274" name="テキスト ボックス 273">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000012010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000012010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17890,7 +17906,7 @@
         <xdr:cNvPr id="275" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000013010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000013010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17951,7 +17967,7 @@
         <xdr:cNvPr id="276" name="円/楕円 275">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000014010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000014010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18013,7 +18029,7 @@
         <xdr:cNvPr id="277" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000015010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000015010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18071,7 +18087,7 @@
         <xdr:cNvPr id="278" name="円/楕円 277">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000016010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000016010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18133,7 +18149,7 @@
         <xdr:cNvPr id="280" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000018010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000018010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18188,7 +18204,7 @@
         <xdr:cNvPr id="281" name="テキスト ボックス 280">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000019010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000019010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18261,7 +18277,7 @@
         <xdr:cNvPr id="282" name="テキスト ボックス 281">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00001A010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001A010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18334,7 +18350,7 @@
         <xdr:cNvPr id="284" name="テキスト ボックス 283">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00001C010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001C010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18412,7 +18428,7 @@
         <xdr:cNvPr id="285" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00001D010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001D010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18470,7 +18486,7 @@
         <xdr:cNvPr id="286" name="テキスト ボックス 285">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00001E010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001E010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18545,7 +18561,7 @@
         <xdr:cNvPr id="288" name="円/楕円 287">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000020010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000020010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18607,7 +18623,7 @@
         <xdr:cNvPr id="289" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000021010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000021010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18667,7 +18683,7 @@
         <xdr:cNvPr id="290" name="円/楕円 289">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000022010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000022010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18724,7 +18740,7 @@
         <xdr:cNvPr id="291" name="テキスト ボックス 290">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000023010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000023010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18800,7 +18816,7 @@
         <xdr:cNvPr id="292" name="円/楕円 291">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000024010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000024010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18862,7 +18878,7 @@
         <xdr:cNvPr id="293" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000025010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000025010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18922,7 +18938,7 @@
         <xdr:cNvPr id="294" name="円/楕円 293">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000026010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000026010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18979,7 +18995,7 @@
         <xdr:cNvPr id="295" name="テキスト ボックス 294">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000027010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000027010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19055,7 +19071,7 @@
         <xdr:cNvPr id="296" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000028010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000028010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19116,7 +19132,7 @@
         <xdr:cNvPr id="299" name="円/楕円 298">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002B010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002B010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19173,7 +19189,7 @@
         <xdr:cNvPr id="300" name="テキスト ボックス 299">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002C010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002C010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19258,7 +19274,7 @@
         <xdr:cNvPr id="301" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002D010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002D010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19318,7 +19334,7 @@
         <xdr:cNvPr id="302" name="円/楕円 301">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002E010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002E010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19380,7 +19396,7 @@
         <xdr:cNvPr id="303" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002F010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002F010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19436,7 +19452,7 @@
         <xdr:cNvPr id="304" name="テキスト ボックス 303">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000030010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000030010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19521,7 +19537,7 @@
         <xdr:cNvPr id="305" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000031010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000031010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19613,7 +19629,7 @@
         <xdr:cNvPr id="306" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000032010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000032010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19700,7 +19716,7 @@
         <xdr:cNvPr id="307" name="テキスト ボックス 306">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000033010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000033010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19774,7 +19790,7 @@
         <xdr:cNvPr id="308" name="テキスト ボックス 307">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000034010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000034010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19852,7 +19868,7 @@
         <xdr:cNvPr id="309" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000035010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000035010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19915,7 +19931,7 @@
         <xdr:cNvPr id="310" name="グループ化 309">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000036010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000036010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19934,7 +19950,7 @@
           <xdr:cNvPr id="311" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000037010000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000037010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20011,7 +20027,7 @@
           <xdr:cNvPr id="312" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000038010000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000038010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20088,7 +20104,7 @@
           <xdr:cNvPr id="313" name="テキスト ボックス 312">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000039010000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000039010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20148,7 +20164,7 @@
           <xdr:cNvPr id="315" name="直線矢印コネクタ 314">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00003B010000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003B010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20210,7 +20226,7 @@
         <xdr:cNvPr id="317" name="直線矢印コネクタ 164">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00003D010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003D010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20271,7 +20287,7 @@
         <xdr:cNvPr id="318" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00003E010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003E010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20333,7 +20349,7 @@
         <xdr:cNvPr id="319" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00003F010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003F010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20388,7 +20404,7 @@
         <xdr:cNvPr id="320" name="テキスト ボックス 319">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000040010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000040010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20464,7 +20480,7 @@
         <xdr:cNvPr id="321" name="直線矢印コネクタ 320">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000041010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000041010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20522,7 +20538,7 @@
         <xdr:cNvPr id="322" name="グループ化 321">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000042010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000042010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20541,7 +20557,7 @@
           <xdr:cNvPr id="323" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000043010000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000043010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20615,7 +20631,7 @@
           <xdr:cNvPr id="324" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000044010000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000044010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20692,7 +20708,7 @@
           <xdr:cNvPr id="325" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000045010000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000045010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20769,7 +20785,7 @@
           <xdr:cNvPr id="326" name="テキスト ボックス 325">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000046010000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000046010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20833,7 +20849,7 @@
           <xdr:cNvPr id="327" name="直線矢印コネクタ 326">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000047010000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000047010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20879,7 +20895,7 @@
           <xdr:cNvPr id="328" name="テキスト ボックス 327">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000048010000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000048010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20943,7 +20959,7 @@
           <xdr:cNvPr id="329" name="直線矢印コネクタ 328">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000049010000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000049010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20986,7 +21002,7 @@
           <xdr:cNvPr id="330" name="テキスト ボックス 329">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00004A010000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004A010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -21049,7 +21065,7 @@
           <xdr:cNvPr id="331" name="直線矢印コネクタ 330">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00004B010000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004B010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -21103,7 +21119,7 @@
         <xdr:cNvPr id="332" name="テキスト ボックス 331">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00004C010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004C010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21179,7 +21195,7 @@
         <xdr:cNvPr id="333" name="グループ化 332">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00004D010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004D010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21198,7 +21214,7 @@
           <xdr:cNvPr id="334" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00004E010000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004E010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -21275,7 +21291,7 @@
           <xdr:cNvPr id="335" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00004F010000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004F010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -21352,7 +21368,7 @@
           <xdr:cNvPr id="336" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000050010000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000050010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -21429,7 +21445,7 @@
           <xdr:cNvPr id="337" name="テキスト ボックス 336">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000051010000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000051010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -21493,7 +21509,7 @@
           <xdr:cNvPr id="338" name="テキスト ボックス 337">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000052010000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000052010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -21556,7 +21572,7 @@
           <xdr:cNvPr id="339" name="直線矢印コネクタ 338">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000053010000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000053010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -21599,7 +21615,7 @@
           <xdr:cNvPr id="340" name="直線矢印コネクタ 339">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000054010000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000054010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -21642,7 +21658,7 @@
           <xdr:cNvPr id="341" name="テキスト ボックス 340">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000055010000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000055010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -21706,7 +21722,7 @@
           <xdr:cNvPr id="342" name="直線矢印コネクタ 341">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000056010000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000056010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -21763,7 +21779,7 @@
         <xdr:cNvPr id="343" name="テキスト ボックス 342">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000057010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000057010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21852,7 +21868,7 @@
         <xdr:cNvPr id="344" name="テキスト ボックス 343">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000058010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000058010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21931,7 +21947,7 @@
         <xdr:cNvPr id="345" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000059010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000059010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21989,7 +22005,7 @@
         <xdr:cNvPr id="346" name="円/楕円 345">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00005A010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005A010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22050,7 +22066,7 @@
         <xdr:cNvPr id="347" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00005B010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005B010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22111,7 +22127,7 @@
         <xdr:cNvPr id="348" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00005C010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005C010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22171,7 +22187,7 @@
         <xdr:cNvPr id="349" name="円/楕円 348">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00005D010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005D010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22228,7 +22244,7 @@
         <xdr:cNvPr id="350" name="テキスト ボックス 349">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00005E010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005E010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22303,7 +22319,7 @@
         <xdr:cNvPr id="351" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00005F010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005F010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22364,7 +22380,7 @@
         <xdr:cNvPr id="352" name="円/楕円 351">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000060010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000060010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22426,7 +22442,7 @@
         <xdr:cNvPr id="353" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000061010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000061010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22487,7 +22503,7 @@
         <xdr:cNvPr id="354" name="円/楕円 353">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000062010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000062010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22549,7 +22565,7 @@
         <xdr:cNvPr id="356" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000064010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000064010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22604,7 +22620,7 @@
         <xdr:cNvPr id="357" name="テキスト ボックス 356">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000065010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000065010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22677,7 +22693,7 @@
         <xdr:cNvPr id="358" name="テキスト ボックス 357">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000066010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000066010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22750,7 +22766,7 @@
         <xdr:cNvPr id="360" name="テキスト ボックス 359">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000068010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000068010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22828,7 +22844,7 @@
         <xdr:cNvPr id="361" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000069010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000069010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22886,7 +22902,7 @@
         <xdr:cNvPr id="362" name="テキスト ボックス 361">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00006A010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00006A010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22961,7 +22977,7 @@
         <xdr:cNvPr id="363" name="円/楕円 362">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00006B010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00006B010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23023,7 +23039,7 @@
         <xdr:cNvPr id="364" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00006C010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00006C010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23083,7 +23099,7 @@
         <xdr:cNvPr id="365" name="円/楕円 364">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00006D010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00006D010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23140,7 +23156,7 @@
         <xdr:cNvPr id="366" name="テキスト ボックス 365">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00006E010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00006E010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23216,7 +23232,7 @@
         <xdr:cNvPr id="367" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00006F010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00006F010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23276,7 +23292,7 @@
         <xdr:cNvPr id="368" name="円/楕円 367">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000070010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000070010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23333,7 +23349,7 @@
         <xdr:cNvPr id="369" name="テキスト ボックス 368">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000071010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000071010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23409,7 +23425,7 @@
         <xdr:cNvPr id="372" name="円/楕円 371">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000074010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000074010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23471,7 +23487,7 @@
         <xdr:cNvPr id="442" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000BA010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000BA010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23563,7 +23579,7 @@
         <xdr:cNvPr id="443" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000BB010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000BB010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23650,7 +23666,7 @@
         <xdr:cNvPr id="444" name="テキスト ボックス 443">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000BC010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000BC010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23724,7 +23740,7 @@
         <xdr:cNvPr id="445" name="テキスト ボックス 444">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000BD010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000BD010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23802,7 +23818,7 @@
         <xdr:cNvPr id="446" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000BE010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000BE010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23865,7 +23881,7 @@
         <xdr:cNvPr id="447" name="グループ化 446">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000BF010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000BF010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23884,7 +23900,7 @@
           <xdr:cNvPr id="448" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000C0010000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000C0010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -23961,7 +23977,7 @@
           <xdr:cNvPr id="449" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000C1010000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000C1010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -24038,7 +24054,7 @@
           <xdr:cNvPr id="450" name="テキスト ボックス 449">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000C2010000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000C2010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -24098,7 +24114,7 @@
           <xdr:cNvPr id="452" name="直線矢印コネクタ 451">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000C4010000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000C4010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -24160,7 +24176,7 @@
         <xdr:cNvPr id="454" name="直線矢印コネクタ 164">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000C6010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000C6010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24221,7 +24237,7 @@
         <xdr:cNvPr id="455" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000C7010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000C7010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24283,7 +24299,7 @@
         <xdr:cNvPr id="456" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000C8010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000C8010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24338,7 +24354,7 @@
         <xdr:cNvPr id="457" name="テキスト ボックス 456">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000C9010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000C9010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24417,7 +24433,7 @@
         <xdr:cNvPr id="458" name="直線矢印コネクタ 457">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000CA010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000CA010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24475,7 +24491,7 @@
         <xdr:cNvPr id="459" name="グループ化 458">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000CB010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000CB010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24494,7 +24510,7 @@
           <xdr:cNvPr id="460" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000CC010000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000CC010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -24584,7 +24600,7 @@
           <xdr:cNvPr id="461" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000CD010000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000CD010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -24661,7 +24677,7 @@
           <xdr:cNvPr id="462" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000CE010000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000CE010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -24738,7 +24754,7 @@
           <xdr:cNvPr id="463" name="テキスト ボックス 462">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000CF010000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000CF010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -24802,7 +24818,7 @@
           <xdr:cNvPr id="464" name="直線矢印コネクタ 463">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D0010000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D0010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -24848,7 +24864,7 @@
           <xdr:cNvPr id="465" name="テキスト ボックス 464">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D1010000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D1010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -24912,7 +24928,7 @@
           <xdr:cNvPr id="466" name="直線矢印コネクタ 465">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D2010000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D2010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -24955,7 +24971,7 @@
           <xdr:cNvPr id="467" name="テキスト ボックス 466">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D3010000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D3010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25018,7 +25034,7 @@
           <xdr:cNvPr id="468" name="直線矢印コネクタ 467">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D4010000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D4010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25072,7 +25088,7 @@
         <xdr:cNvPr id="469" name="テキスト ボックス 468">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D5010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D5010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25151,7 +25167,7 @@
         <xdr:cNvPr id="470" name="グループ化 469">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D6010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D6010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25170,7 +25186,7 @@
           <xdr:cNvPr id="471" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D7010000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D7010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25247,7 +25263,7 @@
           <xdr:cNvPr id="472" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D8010000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D8010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25324,7 +25340,7 @@
           <xdr:cNvPr id="473" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D9010000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D9010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25401,7 +25417,7 @@
           <xdr:cNvPr id="474" name="テキスト ボックス 473">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000DA010000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000DA010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25465,7 +25481,7 @@
           <xdr:cNvPr id="475" name="テキスト ボックス 474">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000DB010000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000DB010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25528,7 +25544,7 @@
           <xdr:cNvPr id="476" name="直線矢印コネクタ 475">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000DC010000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000DC010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25571,7 +25587,7 @@
           <xdr:cNvPr id="477" name="直線矢印コネクタ 476">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000DD010000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000DD010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25614,7 +25630,7 @@
           <xdr:cNvPr id="478" name="テキスト ボックス 477">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000DE010000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000DE010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25678,7 +25694,7 @@
           <xdr:cNvPr id="479" name="直線矢印コネクタ 478">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000DF010000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000DF010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25732,7 +25748,7 @@
         <xdr:cNvPr id="480" name="テキスト ボックス 479">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000E0010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000E0010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25821,7 +25837,7 @@
         <xdr:cNvPr id="481" name="テキスト ボックス 480">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000E1010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000E1010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25900,7 +25916,7 @@
         <xdr:cNvPr id="482" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000E2010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000E2010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25958,7 +25974,7 @@
         <xdr:cNvPr id="483" name="円/楕円 482">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000E3010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000E3010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26020,7 +26036,7 @@
         <xdr:cNvPr id="484" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000E4010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000E4010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26081,7 +26097,7 @@
         <xdr:cNvPr id="485" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000E5010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000E5010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26141,7 +26157,7 @@
         <xdr:cNvPr id="486" name="円/楕円 485">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000E6010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000E6010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26197,7 +26213,7 @@
         <xdr:cNvPr id="487" name="テキスト ボックス 486">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000E7010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000E7010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26272,7 +26288,7 @@
         <xdr:cNvPr id="488" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000E8010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000E8010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26333,7 +26349,7 @@
         <xdr:cNvPr id="489" name="円/楕円 488">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000E9010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000E9010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26395,7 +26411,7 @@
         <xdr:cNvPr id="490" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000EA010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000EA010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26456,7 +26472,7 @@
         <xdr:cNvPr id="491" name="円/楕円 490">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000EB010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000EB010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26518,7 +26534,7 @@
         <xdr:cNvPr id="493" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000ED010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000ED010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26573,7 +26589,7 @@
         <xdr:cNvPr id="494" name="テキスト ボックス 493">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000EE010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000EE010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26646,7 +26662,7 @@
         <xdr:cNvPr id="495" name="テキスト ボックス 494">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000EF010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000EF010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26719,7 +26735,7 @@
         <xdr:cNvPr id="497" name="テキスト ボックス 496">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000F1010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000F1010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26797,7 +26813,7 @@
         <xdr:cNvPr id="498" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000F2010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000F2010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26855,7 +26871,7 @@
         <xdr:cNvPr id="499" name="テキスト ボックス 498">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000F3010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000F3010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26930,7 +26946,7 @@
         <xdr:cNvPr id="500" name="円/楕円 499">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000F4010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000F4010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26992,7 +27008,7 @@
         <xdr:cNvPr id="501" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000F5010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000F5010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27052,7 +27068,7 @@
         <xdr:cNvPr id="502" name="円/楕円 501">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000F6010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000F6010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27109,7 +27125,7 @@
         <xdr:cNvPr id="503" name="テキスト ボックス 502">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000F7010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000F7010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27188,7 +27204,7 @@
         <xdr:cNvPr id="504" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000F8010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000F8010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27248,7 +27264,7 @@
         <xdr:cNvPr id="505" name="円/楕円 504">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000F9010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000F9010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27305,7 +27321,7 @@
         <xdr:cNvPr id="506" name="テキスト ボックス 505">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000FA010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000FA010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27381,7 +27397,7 @@
         <xdr:cNvPr id="508" name="円/楕円 507">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000FC010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000FC010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27443,7 +27459,7 @@
         <xdr:cNvPr id="510" name="円/楕円 509">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000FE010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000FE010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27505,7 +27521,7 @@
         <xdr:cNvPr id="511" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000FF010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000FF010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27560,7 +27576,7 @@
         <xdr:cNvPr id="515" name="テキスト ボックス 514">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003020000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003020000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27645,7 +27661,7 @@
         <xdr:cNvPr id="256" name="Rounded Rectangle 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000000010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000000010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27737,7 +27753,7 @@
         <xdr:cNvPr id="257" name="Rounded Rectangle 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000001010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27824,7 +27840,7 @@
         <xdr:cNvPr id="258" name="テキスト ボックス 257">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27895,7 +27911,7 @@
         <xdr:cNvPr id="259" name="テキスト ボックス 258">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27970,7 +27986,7 @@
         <xdr:cNvPr id="263" name="直線矢印コネクタ 262">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000007010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28028,7 +28044,7 @@
         <xdr:cNvPr id="298" name="直線矢印コネクタ 297">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002A010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002A010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28081,7 +28097,7 @@
         <xdr:cNvPr id="371" name="テキスト ボックス 370">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000073010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000073010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28183,7 +28199,7 @@
         <xdr:cNvPr id="374" name="円/楕円 373">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000076010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000076010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28245,7 +28261,7 @@
         <xdr:cNvPr id="375" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000077010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000077010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28301,7 +28317,7 @@
         <xdr:cNvPr id="376" name="テキスト ボックス 375">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000078010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000078010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28398,7 +28414,7 @@
         <xdr:cNvPr id="377" name="テキスト ボックス 376">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000079010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000079010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28500,7 +28516,7 @@
         <xdr:cNvPr id="215" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EBA09F60-1C38-4319-9D42-2D14A8AE9DE4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBA09F60-1C38-4319-9D42-2D14A8AE9DE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28558,7 +28574,7 @@
         <xdr:cNvPr id="216" name="円/楕円 289">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB5159FF-A7CD-45BA-85AE-1681AC3AC650}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB5159FF-A7CD-45BA-85AE-1681AC3AC650}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28620,7 +28636,7 @@
         <xdr:cNvPr id="221" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8E454E49-9569-441C-BC4C-B5F5FDD7AA89}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E454E49-9569-441C-BC4C-B5F5FDD7AA89}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28678,7 +28694,7 @@
         <xdr:cNvPr id="222" name="円/楕円 364">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{70B001FB-5286-4E8B-8A0B-25AB45C59D55}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70B001FB-5286-4E8B-8A0B-25AB45C59D55}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28740,7 +28756,7 @@
         <xdr:cNvPr id="223" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{803C4659-22C1-4B7B-A164-A7822B7A2751}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{803C4659-22C1-4B7B-A164-A7822B7A2751}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28798,7 +28814,7 @@
         <xdr:cNvPr id="224" name="円/楕円 501">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6A5C66BE-0014-4780-8B2B-93AE854393A6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A5C66BE-0014-4780-8B2B-93AE854393A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28958,7 +28974,7 @@
         <xdr:cNvPr id="225" name="円/楕円 224">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002E010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002E010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29015,7 +29031,7 @@
         <xdr:cNvPr id="226" name="テキスト ボックス 225">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002C010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002C010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29093,7 +29109,7 @@
         <xdr:cNvPr id="227" name="Rounded Rectangle 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000000010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000000010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29180,7 +29196,7 @@
         <xdr:cNvPr id="228" name="テキスト ボックス 227">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000073010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000073010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29282,7 +29298,7 @@
         <xdr:cNvPr id="229" name="円/楕円 228">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000076010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000076010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29344,7 +29360,7 @@
         <xdr:cNvPr id="230" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000077010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000077010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29400,7 +29416,7 @@
         <xdr:cNvPr id="231" name="テキスト ボックス 230">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29477,7 +29493,7 @@
         <xdr:cNvPr id="232" name="テキスト ボックス 231">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29552,7 +29568,7 @@
         <xdr:cNvPr id="233" name="直線矢印コネクタ 232">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000007010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29610,7 +29626,7 @@
         <xdr:cNvPr id="234" name="直線矢印コネクタ 233">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002A010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002A010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29668,7 +29684,7 @@
         <xdr:cNvPr id="235" name="Rounded Rectangle 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000000010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000000010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29755,7 +29771,7 @@
         <xdr:cNvPr id="244" name="テキスト ボックス 243">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000B010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29945,7 +29961,7 @@
         <xdr:cNvPr id="99" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000063000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000063000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30037,7 +30053,7 @@
         <xdr:cNvPr id="104" name="Rounded Rectangle 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000068000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000068000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30129,7 +30145,7 @@
         <xdr:cNvPr id="106" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00006A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30216,7 +30232,7 @@
         <xdr:cNvPr id="113" name="テキスト ボックス 112">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000071000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000071000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30290,7 +30306,7 @@
         <xdr:cNvPr id="114" name="テキスト ボックス 113">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000072000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000072000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30368,7 +30384,7 @@
         <xdr:cNvPr id="115" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000073000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000073000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30431,7 +30447,7 @@
         <xdr:cNvPr id="119" name="直線矢印コネクタ 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000077000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000077000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30487,7 +30503,7 @@
         <xdr:cNvPr id="120" name="テキスト ボックス 119">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000078000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000078000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30565,7 +30581,7 @@
         <xdr:cNvPr id="4" name="グループ化 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30584,7 +30600,7 @@
           <xdr:cNvPr id="121" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000079000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000079000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -30661,7 +30677,7 @@
           <xdr:cNvPr id="122" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00007A000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00007A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -30738,7 +30754,7 @@
           <xdr:cNvPr id="123" name="テキスト ボックス 122">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00007B000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00007B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -30798,7 +30814,7 @@
           <xdr:cNvPr id="126" name="直線矢印コネクタ 125">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00007E000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00007E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -30857,7 +30873,7 @@
         <xdr:cNvPr id="129" name="直線矢印コネクタ 164">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000081000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000081000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30917,7 +30933,7 @@
         <xdr:cNvPr id="131" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000083000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000083000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30980,7 +30996,7 @@
         <xdr:cNvPr id="132" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000084000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000084000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31033,7 +31049,7 @@
         <xdr:cNvPr id="134" name="テキスト ボックス 133">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000086000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000086000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31109,7 +31125,7 @@
         <xdr:cNvPr id="138" name="直線矢印コネクタ 137">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00008A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00008A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31167,7 +31183,7 @@
         <xdr:cNvPr id="3" name="グループ化 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31186,7 +31202,7 @@
           <xdr:cNvPr id="107" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00006B000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -31263,7 +31279,7 @@
           <xdr:cNvPr id="108" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00006C000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -31340,7 +31356,7 @@
           <xdr:cNvPr id="109" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00006D000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -31417,7 +31433,7 @@
           <xdr:cNvPr id="116" name="テキスト ボックス 115">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000074000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000074000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -31481,7 +31497,7 @@
           <xdr:cNvPr id="117" name="直線矢印コネクタ 116">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000075000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000075000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -31527,7 +31543,7 @@
           <xdr:cNvPr id="136" name="テキスト ボックス 135">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000088000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000088000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -31591,7 +31607,7 @@
           <xdr:cNvPr id="137" name="直線矢印コネクタ 136">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000089000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000089000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -31634,7 +31650,7 @@
           <xdr:cNvPr id="139" name="テキスト ボックス 138">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00008B000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00008B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -31697,7 +31713,7 @@
           <xdr:cNvPr id="140" name="直線矢印コネクタ 139">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00008C000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00008C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -31751,7 +31767,7 @@
         <xdr:cNvPr id="51" name="テキスト ボックス 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000033000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31827,7 +31843,7 @@
         <xdr:cNvPr id="2" name="グループ化 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31846,7 +31862,7 @@
           <xdr:cNvPr id="100" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000064000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000064000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -31923,7 +31939,7 @@
           <xdr:cNvPr id="101" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000065000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000065000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -32000,7 +32016,7 @@
           <xdr:cNvPr id="103" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000067000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000067000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -32077,7 +32093,7 @@
           <xdr:cNvPr id="44" name="テキスト ボックス 43">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00002C000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -32141,7 +32157,7 @@
           <xdr:cNvPr id="45" name="テキスト ボックス 44">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00002D000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -32204,7 +32220,7 @@
           <xdr:cNvPr id="46" name="直線矢印コネクタ 45">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00002E000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -32247,7 +32263,7 @@
           <xdr:cNvPr id="47" name="直線矢印コネクタ 46">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00002F000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -32290,7 +32306,7 @@
           <xdr:cNvPr id="52" name="テキスト ボックス 51">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000034000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000034000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -32354,7 +32370,7 @@
           <xdr:cNvPr id="53" name="直線矢印コネクタ 52">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000035000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000035000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -32408,7 +32424,7 @@
         <xdr:cNvPr id="71" name="テキスト ボックス 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000047000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000047000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32481,7 +32497,7 @@
         <xdr:cNvPr id="74" name="テキスト ボックス 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00004A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00004A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32560,7 +32576,7 @@
         <xdr:cNvPr id="82" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000052000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000052000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32618,7 +32634,7 @@
         <xdr:cNvPr id="92" name="円/楕円 91">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00005C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00005C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32680,7 +32696,7 @@
         <xdr:cNvPr id="94" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00005E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00005E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32741,7 +32757,7 @@
         <xdr:cNvPr id="118" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000076000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000076000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32801,7 +32817,7 @@
         <xdr:cNvPr id="141" name="円/楕円 140">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00008D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00008D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32858,7 +32874,7 @@
         <xdr:cNvPr id="145" name="テキスト ボックス 144">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000091000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000091000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32933,7 +32949,7 @@
         <xdr:cNvPr id="72" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000048000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000048000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32994,7 +33010,7 @@
         <xdr:cNvPr id="73" name="円/楕円 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000049000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000049000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33056,7 +33072,7 @@
         <xdr:cNvPr id="75" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00004B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00004B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33116,7 +33132,7 @@
         <xdr:cNvPr id="76" name="円/楕円 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00004C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00004C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33178,7 +33194,7 @@
         <xdr:cNvPr id="81" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000051000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000051000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33233,7 +33249,7 @@
         <xdr:cNvPr id="84" name="テキスト ボックス 83">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000054000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000054000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33306,7 +33322,7 @@
         <xdr:cNvPr id="85" name="テキスト ボックス 84">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000055000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000055000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33379,7 +33395,7 @@
         <xdr:cNvPr id="89" name="テキスト ボックス 88">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000059000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000059000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33457,7 +33473,7 @@
         <xdr:cNvPr id="91" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00005B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00005B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33515,7 +33531,7 @@
         <xdr:cNvPr id="95" name="テキスト ボックス 94">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00005F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00005F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33590,7 +33606,7 @@
         <xdr:cNvPr id="102" name="円/楕円 101">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000066000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000066000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33652,7 +33668,7 @@
         <xdr:cNvPr id="111" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00006F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33712,7 +33728,7 @@
         <xdr:cNvPr id="112" name="円/楕円 111">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000070000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000070000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33769,7 +33785,7 @@
         <xdr:cNvPr id="147" name="テキスト ボックス 146">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000093000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000093000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33845,7 +33861,7 @@
         <xdr:cNvPr id="155" name="円/楕円 154">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00009B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00009B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33907,7 +33923,7 @@
         <xdr:cNvPr id="156" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00009C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00009C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33967,7 +33983,7 @@
         <xdr:cNvPr id="157" name="円/楕円 156">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00009D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00009D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34024,7 +34040,7 @@
         <xdr:cNvPr id="158" name="テキスト ボックス 157">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00009E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00009E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34100,7 +34116,7 @@
         <xdr:cNvPr id="68" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AE121FF4-57C1-4AE3-B948-CF94F7FCC18F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE121FF4-57C1-4AE3-B948-CF94F7FCC18F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34158,7 +34174,7 @@
         <xdr:cNvPr id="69" name="円/楕円 111">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D1DB0A7-B0DF-4915-9924-F3B932238AA0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D1DB0A7-B0DF-4915-9924-F3B932238AA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34215,7 +34231,7 @@
         <xdr:cNvPr id="70" name="テキスト ボックス 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000B010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34400,7 +34416,7 @@
         <xdr:cNvPr id="78" name="テキスト ボックス 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004010000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34818,8 +34834,8 @@
   </sheetPr>
   <dimension ref="B2:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.75" defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
@@ -34841,28 +34857,43 @@
       </c>
     </row>
     <row r="7" spans="2:4" ht="35.25" x14ac:dyDescent="0.8">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" spans="2:4" ht="33" x14ac:dyDescent="0.75">
       <c r="B8" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:4" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="D14" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="D15" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="D16" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="17.25" x14ac:dyDescent="0.4">
       <c r="D17" s="18" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B18" s="16" t="s">
-        <v>43</v>
+      <c r="B18" s="17" t="s">
+        <v>42</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -35284,7 +35315,7 @@
     </row>
     <row r="5" spans="2:3" ht="16.5" x14ac:dyDescent="0.4">
       <c r="B5" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.35">
@@ -35312,7 +35343,7 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B11" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.35">

--- a/設計書/05_基本設計書_画面遷移図_五十嵐侑瑞樹_2.0.xlsx
+++ b/設計書/05_基本設計書_画面遷移図_五十嵐侑瑞樹_2.0.xlsx
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'画面遷移図(システム管理者)'!$A$1:$AS$47</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'画面遷移図(一般会員)'!$A$1:$AW$98</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'画面遷移図(一般会員)'!$A$1:$AW$78</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'画面遷移図(運用管理者)'!$A$1:$AV$136</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'画面遷移図(非会員)'!$A$1:$AL$65</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'画面遷移図(一般会員)'!$1:$2</definedName>
@@ -767,10 +767,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>Ver.3.1</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>花より漢気チーム</t>
     <rPh sb="0" eb="1">
       <t>ハナ</t>
@@ -781,7 +777,11 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>更新日：2021年6月8日</t>
+    <t>編集者：五十嵐　侑瑞樹</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>更新日：2021年6月23日</t>
     <rPh sb="0" eb="3">
       <t>コウシンビ</t>
     </rPh>
@@ -791,13 +791,13 @@
     <rPh sb="10" eb="11">
       <t>ガツ</t>
     </rPh>
-    <rPh sb="12" eb="13">
+    <rPh sb="13" eb="14">
       <t>カ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>編集者：五十嵐　侑瑞樹</t>
+    <t>Ver.4.1</t>
     <phoneticPr fontId="11"/>
   </si>
 </sst>
@@ -1003,14 +1003,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1056,7 +1056,7 @@
         <xdr:cNvPr id="274" name="カギ線コネクタ 273">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000012010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1117,7 +1117,7 @@
         <xdr:cNvPr id="2" name="Rounded Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1217,7 +1217,7 @@
         <xdr:cNvPr id="5" name="Rounded Rectangle 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1309,7 +1309,7 @@
         <xdr:cNvPr id="6" name="Rounded Rectangle 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1414,7 +1414,7 @@
         <xdr:cNvPr id="36" name="Rounded Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1527,7 +1527,7 @@
         <xdr:cNvPr id="70" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000046000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000046000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1619,7 +1619,7 @@
         <xdr:cNvPr id="78" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1711,7 +1711,7 @@
         <xdr:cNvPr id="79" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1803,7 +1803,7 @@
         <xdr:cNvPr id="126" name="直線矢印コネクタ 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00007E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1864,7 +1864,7 @@
         <xdr:cNvPr id="129" name="直線矢印コネクタ 128">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000081000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000081000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1925,7 +1925,7 @@
         <xdr:cNvPr id="289" name="直線矢印コネクタ 288">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000021010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1983,7 +1983,7 @@
         <xdr:cNvPr id="226" name="カギ線コネクタ 225">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000E2000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000E2000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2039,7 +2039,7 @@
         <xdr:cNvPr id="10" name="テキスト ボックス 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2126,7 +2126,7 @@
         <xdr:cNvPr id="32" name="直線矢印コネクタ 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2179,7 +2179,7 @@
         <xdr:cNvPr id="33" name="テキスト ボックス 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2326,7 +2326,7 @@
         <xdr:cNvPr id="38" name="テキスト ボックス 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2408,7 +2408,7 @@
         <xdr:cNvPr id="50" name="テキスト ボックス 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000032000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2479,7 +2479,7 @@
         <xdr:cNvPr id="53" name="テキスト ボックス 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000035000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2550,7 +2550,7 @@
         <xdr:cNvPr id="58" name="テキスト ボックス 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2626,7 +2626,7 @@
         <xdr:cNvPr id="71" name="カギ線コネクタ 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000047000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000047000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2690,7 +2690,7 @@
         <xdr:cNvPr id="76" name="直線矢印コネクタ 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2743,7 +2743,7 @@
         <xdr:cNvPr id="80" name="テキスト ボックス 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000050000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000050000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2814,7 +2814,7 @@
         <xdr:cNvPr id="84" name="テキスト ボックス 83">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000054000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000054000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2897,7 +2897,7 @@
         <xdr:cNvPr id="85" name="直線矢印コネクタ 84">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000055000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000055000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2950,7 +2950,7 @@
         <xdr:cNvPr id="88" name="テキスト ボックス 87">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000058000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000058000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3027,7 +3027,7 @@
         <xdr:cNvPr id="93" name="テキスト ボックス 92">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00005D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3103,7 +3103,7 @@
         <xdr:cNvPr id="96" name="直線矢印コネクタ 95">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000060000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000060000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3156,7 +3156,7 @@
         <xdr:cNvPr id="97" name="テキスト ボックス 96">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000061000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000061000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3232,7 +3232,7 @@
         <xdr:cNvPr id="98" name="カギ線コネクタ 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000062000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000062000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3287,7 +3287,7 @@
         <xdr:cNvPr id="106" name="テキスト ボックス 105">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00006A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3363,7 +3363,7 @@
         <xdr:cNvPr id="109" name="直線矢印コネクタ 108">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00006D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3416,7 +3416,7 @@
         <xdr:cNvPr id="110" name="テキスト ボックス 109">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00006E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3492,7 +3492,7 @@
         <xdr:cNvPr id="37" name="直線矢印コネクタ 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3548,7 +3548,7 @@
         <xdr:cNvPr id="39" name="テキスト ボックス 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3622,7 +3622,7 @@
         <xdr:cNvPr id="40" name="テキスト ボックス 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3697,7 +3697,7 @@
         <xdr:cNvPr id="41" name="テキスト ボックス 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3825,7 +3825,7 @@
         <xdr:cNvPr id="64" name="円/楕円 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000091000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000091000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3887,7 +3887,7 @@
         <xdr:cNvPr id="65" name="直線矢印コネクタ 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000098000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000098000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3945,7 +3945,7 @@
         <xdr:cNvPr id="66" name="Rounded Rectangle 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4037,7 +4037,7 @@
         <xdr:cNvPr id="67" name="直線矢印コネクタ 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000098000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000098000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4090,7 +4090,7 @@
         <xdr:cNvPr id="68" name="テキスト ボックス 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000075000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000075000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4166,7 +4166,7 @@
         <xdr:cNvPr id="69" name="直線矢印コネクタ 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000098000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000098000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4219,7 +4219,7 @@
         <xdr:cNvPr id="73" name="テキスト ボックス 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A8000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A8000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4289,7 +4289,7 @@
         <xdr:cNvPr id="74" name="テキスト ボックス 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000077000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000077000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4365,7 +4365,7 @@
         <xdr:cNvPr id="75" name="Rounded Rectangle 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4457,7 +4457,7 @@
         <xdr:cNvPr id="77" name="直線矢印コネクタ 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000098000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000098000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4515,7 +4515,7 @@
         <xdr:cNvPr id="81" name="Rounded Rectangle 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4607,7 +4607,7 @@
         <xdr:cNvPr id="82" name="直線矢印コネクタ 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000098000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000098000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4665,7 +4665,7 @@
         <xdr:cNvPr id="83" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000098000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000098000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4718,7 +4718,7 @@
         <xdr:cNvPr id="86" name="テキスト ボックス 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000075000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000075000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4789,7 +4789,7 @@
         <xdr:cNvPr id="87" name="テキスト ボックス 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000075000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000075000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4859,7 +4859,7 @@
         <xdr:cNvPr id="89" name="テキスト ボックス 88">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000075000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000075000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4935,7 +4935,7 @@
         <xdr:cNvPr id="92" name="円/楕円 91">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000091000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000091000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5049,7 +5049,7 @@
         <xdr:cNvPr id="99" name="円/楕円 98">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000091000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000091000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5110,7 +5110,7 @@
         <xdr:cNvPr id="102" name="円/楕円 101">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000091000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000091000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5171,7 +5171,7 @@
         <xdr:cNvPr id="103" name="円/楕円 102">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000091000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000091000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5237,7 +5237,7 @@
         <xdr:cNvPr id="2" name="Rounded Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5337,7 +5337,7 @@
         <xdr:cNvPr id="3" name="Rounded Rectangle 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5429,7 +5429,7 @@
         <xdr:cNvPr id="4" name="Rounded Rectangle 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5521,7 +5521,7 @@
         <xdr:cNvPr id="5" name="Rounded Rectangle 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5624,7 +5624,7 @@
         <xdr:cNvPr id="6" name="Rounded Rectangle 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5727,7 +5727,7 @@
         <xdr:cNvPr id="7" name="Rounded Rectangle 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5819,7 +5819,7 @@
         <xdr:cNvPr id="8" name="Rounded Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5911,7 +5911,7 @@
         <xdr:cNvPr id="9" name="Rounded Rectangle 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6003,7 +6003,7 @@
         <xdr:cNvPr id="10" name="Rounded Rectangle 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6095,7 +6095,7 @@
         <xdr:cNvPr id="11" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000033000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6187,7 +6187,7 @@
         <xdr:cNvPr id="12" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000036000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6279,7 +6279,7 @@
         <xdr:cNvPr id="13" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000037000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6371,7 +6371,7 @@
         <xdr:cNvPr id="14" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000038000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6463,7 +6463,7 @@
         <xdr:cNvPr id="15" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6555,7 +6555,7 @@
         <xdr:cNvPr id="16" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6647,7 +6647,7 @@
         <xdr:cNvPr id="17" name="直線矢印コネクタ 128">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000040000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6702,7 +6702,7 @@
         <xdr:cNvPr id="18" name="テキスト ボックス 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000043000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000043000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6784,7 +6784,7 @@
         <xdr:cNvPr id="19" name="テキスト ボックス 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000044000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000044000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6860,7 +6860,7 @@
         <xdr:cNvPr id="20" name="直線矢印コネクタ 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00004B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6921,7 +6921,7 @@
         <xdr:cNvPr id="21" name="直線矢印コネクタ 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00004C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6974,7 +6974,7 @@
         <xdr:cNvPr id="22" name="テキスト ボックス 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00004D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7044,7 +7044,7 @@
         <xdr:cNvPr id="23" name="テキスト ボックス 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00005A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7127,7 +7127,7 @@
         <xdr:cNvPr id="24" name="直線矢印コネクタ 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00005B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7185,7 +7185,7 @@
         <xdr:cNvPr id="25" name="直線矢印コネクタ 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00005D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7238,7 +7238,7 @@
         <xdr:cNvPr id="26" name="テキスト ボックス 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00005E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7309,7 +7309,7 @@
         <xdr:cNvPr id="27" name="テキスト ボックス 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00005F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7385,7 +7385,7 @@
         <xdr:cNvPr id="28" name="Rounded Rectangle 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000062000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000062000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7472,7 +7472,7 @@
         <xdr:cNvPr id="29" name="テキスト ボックス 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000063000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000063000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7555,7 +7555,7 @@
         <xdr:cNvPr id="30" name="直線矢印コネクタ 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000066000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000066000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7608,7 +7608,7 @@
         <xdr:cNvPr id="31" name="テキスト ボックス 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000068000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000068000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7684,7 +7684,7 @@
         <xdr:cNvPr id="32" name="直線矢印コネクタ 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000069000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000069000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7737,7 +7737,7 @@
         <xdr:cNvPr id="33" name="テキスト ボックス 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00006A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7808,7 +7808,7 @@
         <xdr:cNvPr id="34" name="テキスト ボックス 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000073000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000073000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7887,7 +7887,7 @@
         <xdr:cNvPr id="35" name="直線矢印コネクタ 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000074000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000074000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7940,7 +7940,7 @@
         <xdr:cNvPr id="36" name="テキスト ボックス 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000075000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000075000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8011,7 +8011,7 @@
         <xdr:cNvPr id="37" name="テキスト ボックス 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000077000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000077000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8098,7 +8098,7 @@
         <xdr:cNvPr id="38" name="直線矢印コネクタ 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000079000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000079000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8156,7 +8156,7 @@
         <xdr:cNvPr id="39" name="直線矢印コネクタ 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00007C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8209,7 +8209,7 @@
         <xdr:cNvPr id="40" name="テキスト ボックス 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000080000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000080000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8280,7 +8280,7 @@
         <xdr:cNvPr id="41" name="テキスト ボックス 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000081000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000081000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8356,7 +8356,7 @@
         <xdr:cNvPr id="42" name="直線矢印コネクタ 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000088000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000088000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8412,7 +8412,7 @@
         <xdr:cNvPr id="43" name="テキスト ボックス 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00008A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00008A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8491,7 +8491,7 @@
         <xdr:cNvPr id="44" name="直線矢印コネクタ 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000093000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000093000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8544,7 +8544,7 @@
         <xdr:cNvPr id="45" name="テキスト ボックス 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000095000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000095000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8619,7 +8619,7 @@
         <xdr:cNvPr id="46" name="直線矢印コネクタ 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000096000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000096000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8677,7 +8677,7 @@
         <xdr:cNvPr id="47" name="直線矢印コネクタ 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000097000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000097000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8730,7 +8730,7 @@
         <xdr:cNvPr id="48" name="テキスト ボックス 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000099000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000099000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8801,7 +8801,7 @@
         <xdr:cNvPr id="49" name="テキスト ボックス 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00009A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8876,7 +8876,7 @@
         <xdr:cNvPr id="50" name="直線矢印コネクタ 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00009B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8934,7 +8934,7 @@
         <xdr:cNvPr id="51" name="直線矢印コネクタ 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00009C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8987,7 +8987,7 @@
         <xdr:cNvPr id="52" name="テキスト ボックス 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00009D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9058,7 +9058,7 @@
         <xdr:cNvPr id="53" name="テキスト ボックス 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00009E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9133,7 +9133,7 @@
         <xdr:cNvPr id="54" name="直線矢印コネクタ 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00009F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9191,7 +9191,7 @@
         <xdr:cNvPr id="55" name="直線矢印コネクタ 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A0000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A0000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9247,7 +9247,7 @@
         <xdr:cNvPr id="56" name="テキスト ボックス 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A1000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A1000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9323,7 +9323,7 @@
         <xdr:cNvPr id="57" name="直線矢印コネクタ 164">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A5000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A5000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9383,7 +9383,7 @@
         <xdr:cNvPr id="58" name="直線矢印コネクタ 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AA000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000AA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9441,7 +9441,7 @@
         <xdr:cNvPr id="59" name="直線矢印コネクタ 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AC000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000AC000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9496,7 +9496,7 @@
         <xdr:cNvPr id="60" name="テキスト ボックス 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AE000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000AE000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9570,7 +9570,7 @@
         <xdr:cNvPr id="61" name="テキスト ボックス 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B0000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000B0000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9650,7 +9650,7 @@
         <xdr:cNvPr id="62" name="カギ線コネクタ 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B3000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000B3000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9708,7 +9708,7 @@
         <xdr:cNvPr id="63" name="テキスト ボックス 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B6000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000B6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9784,7 +9784,7 @@
         <xdr:cNvPr id="64" name="カギ線コネクタ 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BA000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000BA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9843,7 +9843,7 @@
         <xdr:cNvPr id="65" name="テキスト ボックス 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BD000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000BD000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9932,7 +9932,7 @@
         <xdr:cNvPr id="66" name="テキスト ボックス 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000064000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000064000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10008,7 +10008,7 @@
         <xdr:cNvPr id="67" name="直線矢印コネクタ 164">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000065000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000065000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10063,7 +10063,7 @@
         <xdr:cNvPr id="68" name="テキスト ボックス 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000067000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000067000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10138,7 +10138,7 @@
         <xdr:cNvPr id="69" name="円/楕円 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00006B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10195,7 +10195,7 @@
         <xdr:cNvPr id="70" name="テキスト ボックス 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00006C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10273,7 +10273,7 @@
         <xdr:cNvPr id="71" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00006D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10331,7 +10331,7 @@
         <xdr:cNvPr id="72" name="カギ線コネクタ 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000071000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000071000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10390,7 +10390,7 @@
         <xdr:cNvPr id="73" name="テキスト ボックス 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000072000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000072000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10485,7 +10485,7 @@
         <xdr:cNvPr id="74" name="テキスト ボックス 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000076000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000076000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10602,7 +10602,7 @@
         <xdr:cNvPr id="75" name="円/楕円 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000078000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000078000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10664,7 +10664,7 @@
         <xdr:cNvPr id="76" name="直線矢印コネクタ 128">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00007A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10725,7 +10725,7 @@
         <xdr:cNvPr id="77" name="円/楕円 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00007B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10787,7 +10787,7 @@
         <xdr:cNvPr id="78" name="直線矢印コネクタ 128">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00007D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10843,7 +10843,7 @@
         <xdr:cNvPr id="79" name="テキスト ボックス 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00007E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10940,7 +10940,7 @@
         <xdr:cNvPr id="80" name="テキスト ボックス 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000082000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000082000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11023,7 +11023,7 @@
         <xdr:cNvPr id="81" name="直線矢印コネクタ 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000083000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000083000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11076,7 +11076,7 @@
         <xdr:cNvPr id="82" name="テキスト ボックス 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000090000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000090000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11152,7 +11152,7 @@
         <xdr:cNvPr id="83" name="円/楕円 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000091000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000091000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11214,7 +11214,7 @@
         <xdr:cNvPr id="84" name="直線矢印コネクタ 83">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000094000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000094000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11275,7 +11275,7 @@
         <xdr:cNvPr id="85" name="直線矢印コネクタ 84">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000098000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000098000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11328,7 +11328,7 @@
         <xdr:cNvPr id="86" name="テキスト ボックス 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A2000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A2000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11418,7 +11418,7 @@
         <xdr:cNvPr id="87" name="円/楕円 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A3000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A3000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11480,7 +11480,7 @@
         <xdr:cNvPr id="88" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A4000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A4000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11540,7 +11540,7 @@
         <xdr:cNvPr id="89" name="円/楕円 88">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A6000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11602,7 +11602,7 @@
         <xdr:cNvPr id="90" name="直線矢印コネクタ 128">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A7000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A7000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11657,7 +11657,7 @@
         <xdr:cNvPr id="91" name="テキスト ボックス 90">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A8000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A8000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11733,7 +11733,7 @@
         <xdr:cNvPr id="92" name="直線矢印コネクタ 91">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A9000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A9000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11794,7 +11794,7 @@
         <xdr:cNvPr id="93" name="直線矢印コネクタ 92">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000070000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000070000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11847,7 +11847,7 @@
         <xdr:cNvPr id="94" name="テキスト ボックス 93">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00007F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11926,7 +11926,7 @@
         <xdr:cNvPr id="95" name="直線矢印コネクタ 94">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000061000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000061000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11979,7 +11979,7 @@
         <xdr:cNvPr id="96" name="テキスト ボックス 95">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000084000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000084000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12055,7 +12055,7 @@
         <xdr:cNvPr id="97" name="円/楕円 96">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000085000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000085000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12112,7 +12112,7 @@
         <xdr:cNvPr id="98" name="テキスト ボックス 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000063000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000063000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12195,7 +12195,7 @@
         <xdr:cNvPr id="99" name="直線矢印コネクタ 98">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A9000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A9000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12256,7 +12256,7 @@
         <xdr:cNvPr id="100" name="Rounded Rectangle 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000062000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000062000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12348,7 +12348,7 @@
         <xdr:cNvPr id="101" name="直線矢印コネクタ 100">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000070000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000070000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12401,7 +12401,7 @@
         <xdr:cNvPr id="102" name="テキスト ボックス 101">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000044000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000044000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12477,7 +12477,7 @@
         <xdr:cNvPr id="103" name="円/楕円 102">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A6000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12539,7 +12539,7 @@
         <xdr:cNvPr id="104" name="直線矢印コネクタ 103">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000070000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000070000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12599,7 +12599,7 @@
         <xdr:cNvPr id="105" name="円/楕円 104">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A6000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12656,7 +12656,7 @@
         <xdr:cNvPr id="106" name="テキスト ボックス 105">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A8000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A8000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12732,7 +12732,7 @@
         <xdr:cNvPr id="107" name="円/楕円 106">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A6000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12794,7 +12794,7 @@
         <xdr:cNvPr id="108" name="カギ線コネクタ 107">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BA000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000BA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12853,7 +12853,7 @@
         <xdr:cNvPr id="109" name="テキスト ボックス 108">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BD000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000BD000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12928,7 +12928,7 @@
         <xdr:cNvPr id="110" name="円/楕円 109">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000091000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000091000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12990,7 +12990,7 @@
         <xdr:cNvPr id="111" name="直線矢印コネクタ 110">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000070000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000070000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13046,7 +13046,7 @@
         <xdr:cNvPr id="112" name="テキスト ボックス 111">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000090000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000090000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13122,7 +13122,7 @@
         <xdr:cNvPr id="113" name="直線矢印コネクタ 128">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00007A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13280,7 +13280,7 @@
         <xdr:cNvPr id="115" name="テキスト ボックス 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00004D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13350,7 +13350,7 @@
         <xdr:cNvPr id="116" name="テキスト ボックス 115">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000076000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000076000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13465,25 +13465,103 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>62406</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>6812</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="800219" cy="359073"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="テキスト ボックス 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000048000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1862631" y="1226012"/>
+          <a:ext cx="800219" cy="359073"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>会員一覧表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>リンク</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>238679</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>98525</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>23132</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="117" name="Rounded Rectangle 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+        <xdr:cNvPr id="164" name="Rounded Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000A4000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13491,8 +13569,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1228725" y="16506825"/>
-          <a:ext cx="1486454" cy="1143000"/>
+          <a:off x="352425" y="1038225"/>
+          <a:ext cx="1546325" cy="1156607"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -13529,25 +13607,25 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="800">
               <a:latin typeface="Meiryo" charset="-128"/>
               <a:ea typeface="Meiryo" charset="-128"/>
               <a:cs typeface="Meiryo" charset="-128"/>
             </a:rPr>
-            <a:t>1-1-1-1</a:t>
+            <a:t>1-3-1-3</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+            <a:rPr lang="ja-JP" altLang="en-US" sz="800">
               <a:latin typeface="Meiryo" charset="-128"/>
               <a:ea typeface="Meiryo" charset="-128"/>
               <a:cs typeface="Meiryo" charset="-128"/>
             </a:rPr>
-            <a:t>ログイン画面</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
+            <a:t>管理者用メニュー画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="800">
             <a:latin typeface="Meiryo" charset="-128"/>
             <a:ea typeface="Meiryo" charset="-128"/>
             <a:cs typeface="Meiryo" charset="-128"/>
@@ -13560,80 +13638,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>16425</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>112541</xdr:rowOff>
+      <xdr:colOff>7712</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>170162</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>112541</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="118" name="直線矢印コネクタ 117">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000098000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2740575" y="16800341"/>
-          <a:ext cx="896687" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>189915</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>18582</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>188435</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>14236</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>12814</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>11322</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="119" name="Rounded Rectangle 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000F000000}"/>
+        <xdr:cNvPr id="168" name="Rounded Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000A8000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13641,8 +13661,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3657015" y="16515882"/>
-          <a:ext cx="1484420" cy="1138654"/>
+          <a:off x="2579462" y="1023944"/>
+          <a:ext cx="1548152" cy="1159078"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -13684,7 +13704,7 @@
               <a:ea typeface="Meiryo" charset="-128"/>
               <a:cs typeface="Meiryo" charset="-128"/>
             </a:rPr>
-            <a:t>8-1-1-1</a:t>
+            <a:t>6-1-1-3</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -13695,7 +13715,7 @@
               <a:ea typeface="Meiryo" charset="-128"/>
               <a:cs typeface="Meiryo" charset="-128"/>
             </a:rPr>
-            <a:t>お問い合わせ画面</a:t>
+            <a:t>会員一覧画面</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="800">
             <a:latin typeface="Meiryo" charset="-128"/>
@@ -13709,351 +13729,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>197815</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>104258</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>12901</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>16607</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>67350</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>104258</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="120" name="直線矢印コネクタ 119">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000098000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5150815" y="16792058"/>
-          <a:ext cx="860135" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>11348</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>60767</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="716928" cy="225703"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="121" name="テキスト ボックス 120">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000075000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5211998" y="16558067"/>
-          <a:ext cx="716928" cy="225703"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-            <a:t>確認</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-            <a:t>ボタン</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>241284</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>83965</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>147371</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>83965</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="122" name="直線矢印コネクタ 121">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000098000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2717784" y="17343265"/>
-          <a:ext cx="896687" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>141459</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>37858</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="702885" cy="225703"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="123" name="テキスト ボックス 122">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A8000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2865609" y="17106658"/>
-          <a:ext cx="702885" cy="225703"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-            <a:t>戻る</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-            <a:t>ボタン</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
-            <a:t>)</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1128766" cy="225703"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="124" name="テキスト ボックス 123">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000077000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2657475" y="16392525"/>
-          <a:ext cx="1128766" cy="225703"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-            <a:t>お問い合わせ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-            <a:t>リンク</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>73960</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>18582</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>72479</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>14236</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>18149</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>7086</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="125" name="Rounded Rectangle 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000F000000}"/>
+        <xdr:cNvPr id="169" name="Rounded Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000A9000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14061,8 +13753,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6017560" y="16515882"/>
-          <a:ext cx="1484419" cy="1138654"/>
+          <a:off x="2584651" y="3140807"/>
+          <a:ext cx="1548298" cy="1133479"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -14104,1103 +13796,6 @@
               <a:ea typeface="Meiryo" charset="-128"/>
               <a:cs typeface="Meiryo" charset="-128"/>
             </a:rPr>
-            <a:t>8-1-1-2</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="800">
-              <a:latin typeface="Meiryo" charset="-128"/>
-              <a:ea typeface="Meiryo" charset="-128"/>
-              <a:cs typeface="Meiryo" charset="-128"/>
-            </a:rPr>
-            <a:t>お問い合わせ確認画面</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="800">
-            <a:latin typeface="Meiryo" charset="-128"/>
-            <a:ea typeface="Meiryo" charset="-128"/>
-            <a:cs typeface="Meiryo" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>81859</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>4867</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>199872</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>4867</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="126" name="直線矢印コネクタ 125">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000098000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7511359" y="17073667"/>
-          <a:ext cx="860963" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>206481</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>18582</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>205001</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>14236</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="127" name="Rounded Rectangle 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8378931" y="16515882"/>
-          <a:ext cx="1484420" cy="1138654"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="800">
-              <a:latin typeface="Meiryo" charset="-128"/>
-              <a:ea typeface="Meiryo" charset="-128"/>
-              <a:cs typeface="Meiryo" charset="-128"/>
-            </a:rPr>
-            <a:t>8-1-1-3</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="800">
-              <a:latin typeface="Meiryo" charset="-128"/>
-              <a:ea typeface="Meiryo" charset="-128"/>
-              <a:cs typeface="Meiryo" charset="-128"/>
-            </a:rPr>
-            <a:t>お問い合わせ完了画面</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="800">
-            <a:latin typeface="Meiryo" charset="-128"/>
-            <a:ea typeface="Meiryo" charset="-128"/>
-            <a:cs typeface="Meiryo" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>197815</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>88107</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>67350</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>88107</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="128" name="直線矢印コネクタ 127">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000098000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="5150815" y="17347407"/>
-          <a:ext cx="860135" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>68496</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>44616</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="702885" cy="225703"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="129" name="テキスト ボックス 128">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000075000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5269146" y="17113416"/>
-          <a:ext cx="702885" cy="225703"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-            <a:t>戻る</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-            <a:t>ボタン</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>10104</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>151876</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="685701" cy="225703"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="130" name="テキスト ボックス 129">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000075000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9916104" y="16839676"/>
-          <a:ext cx="685701" cy="225703"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-            <a:t>戻る</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-            <a:t>リンク</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
-            <a:t>)</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>160849</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>104251</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="716928" cy="225703"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="131" name="テキスト ボックス 130">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000075000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7590349" y="16792051"/>
-          <a:ext cx="716928" cy="225703"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-            <a:t>送信</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-            <a:t>ボタン</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>238402</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>16409</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>205001</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="132" name="カギ線コネクタ 131"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="127" idx="3"/>
-          <a:endCxn id="117" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1971952" y="17085209"/>
-          <a:ext cx="7891399" cy="564616"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector4">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -5311"/>
-            <a:gd name="adj2" fmla="val 196993"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2203873" cy="625812"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="133" name="テキスト ボックス 132">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000021000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3648075" y="15697200"/>
-          <a:ext cx="2203873" cy="625812"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="00B0F0"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>ログイン成功時会員権限に応じた画面を表示</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>一般会員：</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>2-1-1-2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>トップ画面</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>運用管理者：</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>1-3-1-3</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t> 管理者メニュー画面</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>システム管理者：</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>1-3-1-4</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t> 管理者メニュー画面</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>238402</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>84307</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="134" name="カギ線コネクタ 133"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="117" idx="0"/>
-          <a:endCxn id="133" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="2561654" y="15420405"/>
-          <a:ext cx="496719" cy="1676123"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="869982" cy="225703"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="135" name="テキスト ボックス 134">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00003A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2419350" y="15735300"/>
-          <a:ext cx="869982" cy="225703"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-            <a:t>ログイン</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-            <a:t>ボタン</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>62406</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>6812</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="800219" cy="359073"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="72" name="テキスト ボックス 71">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000048000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1862631" y="1226012"/>
-          <a:ext cx="800219" cy="359073"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-            <a:t>会員一覧表示</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-            <a:t>リンク</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
-            <a:t>)</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>98525</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>23132</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="164" name="Rounded Rectangle 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000A4000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="352425" y="1038225"/>
-          <a:ext cx="1546325" cy="1156607"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="800">
-              <a:latin typeface="Meiryo" charset="-128"/>
-              <a:ea typeface="Meiryo" charset="-128"/>
-              <a:cs typeface="Meiryo" charset="-128"/>
-            </a:rPr>
-            <a:t>1-3-1-3</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="800">
-              <a:latin typeface="Meiryo" charset="-128"/>
-              <a:ea typeface="Meiryo" charset="-128"/>
-              <a:cs typeface="Meiryo" charset="-128"/>
-            </a:rPr>
-            <a:t>管理者用メニュー画面</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="800">
-            <a:latin typeface="Meiryo" charset="-128"/>
-            <a:ea typeface="Meiryo" charset="-128"/>
-            <a:cs typeface="Meiryo" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>7712</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>12814</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>11322</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="168" name="Rounded Rectangle 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000A8000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2579462" y="1023944"/>
-          <a:ext cx="1548152" cy="1159078"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="800">
-              <a:latin typeface="Meiryo" charset="-128"/>
-              <a:ea typeface="Meiryo" charset="-128"/>
-              <a:cs typeface="Meiryo" charset="-128"/>
-            </a:rPr>
-            <a:t>6-1-1-3</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="800">
-              <a:latin typeface="Meiryo" charset="-128"/>
-              <a:ea typeface="Meiryo" charset="-128"/>
-              <a:cs typeface="Meiryo" charset="-128"/>
-            </a:rPr>
-            <a:t>会員一覧画面</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="800">
-            <a:latin typeface="Meiryo" charset="-128"/>
-            <a:ea typeface="Meiryo" charset="-128"/>
-            <a:cs typeface="Meiryo" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>12901</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>16607</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>18149</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>7086</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="169" name="Rounded Rectangle 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000A9000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2584651" y="3140807"/>
-          <a:ext cx="1548298" cy="1133479"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="800">
-              <a:latin typeface="Meiryo" charset="-128"/>
-              <a:ea typeface="Meiryo" charset="-128"/>
-              <a:cs typeface="Meiryo" charset="-128"/>
-            </a:rPr>
             <a:t>6-2-1-3</a:t>
           </a:r>
         </a:p>
@@ -15237,7 +13832,7 @@
         <xdr:cNvPr id="170" name="テキスト ボックス 169">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000AA000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000AA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15311,7 +13906,7 @@
         <xdr:cNvPr id="176" name="テキスト ボックス 175">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000B0000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000B0000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15389,7 +13984,7 @@
         <xdr:cNvPr id="183" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000B7000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000B7000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15452,7 +14047,7 @@
         <xdr:cNvPr id="186" name="グループ化 185">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000BA000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000BA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15471,7 +14066,7 @@
           <xdr:cNvPr id="187" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000BB000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000BB000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -15548,7 +14143,7 @@
           <xdr:cNvPr id="193" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000C1000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000C1000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -15625,7 +14220,7 @@
           <xdr:cNvPr id="195" name="テキスト ボックス 194">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000C3000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000C3000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -15685,7 +14280,7 @@
           <xdr:cNvPr id="197" name="直線矢印コネクタ 196">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000C5000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000C5000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -15747,7 +14342,7 @@
         <xdr:cNvPr id="204" name="直線矢印コネクタ 164">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000CC000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000CC000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15808,7 +14403,7 @@
         <xdr:cNvPr id="205" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000CD000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000CD000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15869,7 +14464,7 @@
         <xdr:cNvPr id="206" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000CE000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000CE000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15924,7 +14519,7 @@
         <xdr:cNvPr id="207" name="テキスト ボックス 206">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000CF000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000CF000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16000,7 +14595,7 @@
         <xdr:cNvPr id="208" name="直線矢印コネクタ 207">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D0000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D0000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16058,7 +14653,7 @@
         <xdr:cNvPr id="209" name="グループ化 208">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D1000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D1000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16077,7 +14672,7 @@
           <xdr:cNvPr id="210" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D2000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D2000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16154,7 +14749,7 @@
           <xdr:cNvPr id="211" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D3000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D3000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16231,7 +14826,7 @@
           <xdr:cNvPr id="212" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D4000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D4000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16308,7 +14903,7 @@
           <xdr:cNvPr id="213" name="テキスト ボックス 212">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D5000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D5000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16372,7 +14967,7 @@
           <xdr:cNvPr id="214" name="直線矢印コネクタ 213">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D6000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D6000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16418,7 +15013,7 @@
           <xdr:cNvPr id="217" name="テキスト ボックス 216">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D9000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D9000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16482,7 +15077,7 @@
           <xdr:cNvPr id="218" name="直線矢印コネクタ 217">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000DA000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000DA000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16525,7 +15120,7 @@
           <xdr:cNvPr id="219" name="テキスト ボックス 218">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000DB000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000DB000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16588,7 +15183,7 @@
           <xdr:cNvPr id="220" name="直線矢印コネクタ 219">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000DC000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000DC000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16642,7 +15237,7 @@
         <xdr:cNvPr id="241" name="テキスト ボックス 240">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000F1000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000F1000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16718,7 +15313,7 @@
         <xdr:cNvPr id="242" name="グループ化 241">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000F2000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000F2000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16737,7 +15332,7 @@
           <xdr:cNvPr id="243" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000F3000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000F3000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16814,7 +15409,7 @@
           <xdr:cNvPr id="254" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000FE000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000FE000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16891,7 +15486,7 @@
           <xdr:cNvPr id="255" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000FF000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000FF000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16968,7 +15563,7 @@
           <xdr:cNvPr id="260" name="テキスト ボックス 259">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17032,7 +15627,7 @@
           <xdr:cNvPr id="261" name="テキスト ボックス 260">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000005010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17095,7 +15690,7 @@
           <xdr:cNvPr id="262" name="直線矢印コネクタ 261">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000006010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17138,7 +15733,7 @@
           <xdr:cNvPr id="264" name="直線矢印コネクタ 263">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000008010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17181,7 +15776,7 @@
           <xdr:cNvPr id="265" name="テキスト ボックス 264">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000009010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17245,7 +15840,7 @@
           <xdr:cNvPr id="266" name="直線矢印コネクタ 265">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000A010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17288,7 +15883,7 @@
           <xdr:cNvPr id="247" name="テキスト ボックス 246">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17381,7 +15976,7 @@
         <xdr:cNvPr id="267" name="テキスト ボックス 266">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000B010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17454,7 +16049,7 @@
         <xdr:cNvPr id="268" name="テキスト ボックス 267">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000C010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17533,7 +16128,7 @@
         <xdr:cNvPr id="269" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000D010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17591,7 +16186,7 @@
         <xdr:cNvPr id="270" name="円/楕円 269">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000E010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17653,7 +16248,7 @@
         <xdr:cNvPr id="271" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000F010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17714,7 +16309,7 @@
         <xdr:cNvPr id="272" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000010010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17774,7 +16369,7 @@
         <xdr:cNvPr id="273" name="円/楕円 272">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000011010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17831,7 +16426,7 @@
         <xdr:cNvPr id="274" name="テキスト ボックス 273">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000012010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000012010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17906,7 +16501,7 @@
         <xdr:cNvPr id="275" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000013010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000013010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17967,7 +16562,7 @@
         <xdr:cNvPr id="276" name="円/楕円 275">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000014010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000014010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18029,7 +16624,7 @@
         <xdr:cNvPr id="277" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000015010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000015010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18087,7 +16682,7 @@
         <xdr:cNvPr id="278" name="円/楕円 277">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000016010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000016010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18149,7 +16744,7 @@
         <xdr:cNvPr id="280" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000018010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000018010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18204,7 +16799,7 @@
         <xdr:cNvPr id="281" name="テキスト ボックス 280">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000019010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000019010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18277,7 +16872,7 @@
         <xdr:cNvPr id="282" name="テキスト ボックス 281">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001A010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00001A010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18350,7 +16945,7 @@
         <xdr:cNvPr id="284" name="テキスト ボックス 283">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001C010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00001C010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18428,7 +17023,7 @@
         <xdr:cNvPr id="285" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001D010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00001D010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18486,7 +17081,7 @@
         <xdr:cNvPr id="286" name="テキスト ボックス 285">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001E010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00001E010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18561,7 +17156,7 @@
         <xdr:cNvPr id="288" name="円/楕円 287">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000020010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000020010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18623,7 +17218,7 @@
         <xdr:cNvPr id="289" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000021010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000021010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18683,7 +17278,7 @@
         <xdr:cNvPr id="290" name="円/楕円 289">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000022010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000022010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18740,7 +17335,7 @@
         <xdr:cNvPr id="291" name="テキスト ボックス 290">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000023010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000023010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18816,7 +17411,7 @@
         <xdr:cNvPr id="292" name="円/楕円 291">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000024010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000024010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18878,7 +17473,7 @@
         <xdr:cNvPr id="293" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000025010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000025010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18938,7 +17533,7 @@
         <xdr:cNvPr id="294" name="円/楕円 293">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000026010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000026010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18995,7 +17590,7 @@
         <xdr:cNvPr id="295" name="テキスト ボックス 294">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000027010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000027010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19071,7 +17666,7 @@
         <xdr:cNvPr id="296" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000028010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000028010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19132,7 +17727,7 @@
         <xdr:cNvPr id="299" name="円/楕円 298">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002B010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002B010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19189,7 +17784,7 @@
         <xdr:cNvPr id="300" name="テキスト ボックス 299">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002C010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002C010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19274,7 +17869,7 @@
         <xdr:cNvPr id="301" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002D010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002D010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19334,7 +17929,7 @@
         <xdr:cNvPr id="302" name="円/楕円 301">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002E010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002E010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19396,7 +17991,7 @@
         <xdr:cNvPr id="303" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002F010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002F010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19452,7 +18047,7 @@
         <xdr:cNvPr id="304" name="テキスト ボックス 303">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000030010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000030010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19537,7 +18132,7 @@
         <xdr:cNvPr id="305" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000031010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000031010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19629,7 +18224,7 @@
         <xdr:cNvPr id="306" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000032010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000032010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19716,7 +18311,7 @@
         <xdr:cNvPr id="307" name="テキスト ボックス 306">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000033010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000033010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19790,7 +18385,7 @@
         <xdr:cNvPr id="308" name="テキスト ボックス 307">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000034010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000034010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19868,7 +18463,7 @@
         <xdr:cNvPr id="309" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000035010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000035010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19931,7 +18526,7 @@
         <xdr:cNvPr id="310" name="グループ化 309">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000036010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000036010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19950,7 +18545,7 @@
           <xdr:cNvPr id="311" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000037010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000037010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20027,7 +18622,7 @@
           <xdr:cNvPr id="312" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000038010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000038010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20104,7 +18699,7 @@
           <xdr:cNvPr id="313" name="テキスト ボックス 312">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000039010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000039010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20164,7 +18759,7 @@
           <xdr:cNvPr id="315" name="直線矢印コネクタ 314">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003B010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00003B010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20226,7 +18821,7 @@
         <xdr:cNvPr id="317" name="直線矢印コネクタ 164">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003D010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00003D010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20287,7 +18882,7 @@
         <xdr:cNvPr id="318" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003E010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00003E010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20349,7 +18944,7 @@
         <xdr:cNvPr id="319" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003F010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00003F010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20404,7 +18999,7 @@
         <xdr:cNvPr id="320" name="テキスト ボックス 319">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000040010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000040010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20480,7 +19075,7 @@
         <xdr:cNvPr id="321" name="直線矢印コネクタ 320">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000041010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000041010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20538,7 +19133,7 @@
         <xdr:cNvPr id="322" name="グループ化 321">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000042010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000042010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20557,7 +19152,7 @@
           <xdr:cNvPr id="323" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000043010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000043010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20631,7 +19226,7 @@
           <xdr:cNvPr id="324" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000044010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000044010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20708,7 +19303,7 @@
           <xdr:cNvPr id="325" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000045010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000045010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20785,7 +19380,7 @@
           <xdr:cNvPr id="326" name="テキスト ボックス 325">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000046010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000046010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20849,7 +19444,7 @@
           <xdr:cNvPr id="327" name="直線矢印コネクタ 326">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000047010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000047010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20895,7 +19490,7 @@
           <xdr:cNvPr id="328" name="テキスト ボックス 327">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000048010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000048010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20959,7 +19554,7 @@
           <xdr:cNvPr id="329" name="直線矢印コネクタ 328">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000049010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000049010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -21002,7 +19597,7 @@
           <xdr:cNvPr id="330" name="テキスト ボックス 329">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004A010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00004A010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -21065,7 +19660,7 @@
           <xdr:cNvPr id="331" name="直線矢印コネクタ 330">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004B010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00004B010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -21119,7 +19714,7 @@
         <xdr:cNvPr id="332" name="テキスト ボックス 331">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004C010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00004C010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21195,7 +19790,7 @@
         <xdr:cNvPr id="333" name="グループ化 332">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004D010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00004D010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21214,7 +19809,7 @@
           <xdr:cNvPr id="334" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004E010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00004E010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -21291,7 +19886,7 @@
           <xdr:cNvPr id="335" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004F010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00004F010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -21368,7 +19963,7 @@
           <xdr:cNvPr id="336" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000050010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000050010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -21445,7 +20040,7 @@
           <xdr:cNvPr id="337" name="テキスト ボックス 336">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000051010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000051010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -21509,7 +20104,7 @@
           <xdr:cNvPr id="338" name="テキスト ボックス 337">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000052010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000052010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -21572,7 +20167,7 @@
           <xdr:cNvPr id="339" name="直線矢印コネクタ 338">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000053010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000053010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -21615,7 +20210,7 @@
           <xdr:cNvPr id="340" name="直線矢印コネクタ 339">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000054010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000054010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -21658,7 +20253,7 @@
           <xdr:cNvPr id="341" name="テキスト ボックス 340">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000055010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000055010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -21722,7 +20317,7 @@
           <xdr:cNvPr id="342" name="直線矢印コネクタ 341">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000056010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000056010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -21779,7 +20374,7 @@
         <xdr:cNvPr id="343" name="テキスト ボックス 342">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000057010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000057010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21868,7 +20463,7 @@
         <xdr:cNvPr id="344" name="テキスト ボックス 343">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000058010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000058010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21947,7 +20542,7 @@
         <xdr:cNvPr id="345" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000059010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000059010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22005,7 +20600,7 @@
         <xdr:cNvPr id="346" name="円/楕円 345">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005A010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00005A010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22066,7 +20661,7 @@
         <xdr:cNvPr id="347" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005B010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00005B010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22127,7 +20722,7 @@
         <xdr:cNvPr id="348" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005C010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00005C010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22187,7 +20782,7 @@
         <xdr:cNvPr id="349" name="円/楕円 348">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005D010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00005D010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22244,7 +20839,7 @@
         <xdr:cNvPr id="350" name="テキスト ボックス 349">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005E010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00005E010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22319,7 +20914,7 @@
         <xdr:cNvPr id="351" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005F010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00005F010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22380,7 +20975,7 @@
         <xdr:cNvPr id="352" name="円/楕円 351">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000060010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000060010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22442,7 +21037,7 @@
         <xdr:cNvPr id="353" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000061010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000061010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22503,7 +21098,7 @@
         <xdr:cNvPr id="354" name="円/楕円 353">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000062010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000062010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22565,7 +21160,7 @@
         <xdr:cNvPr id="356" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000064010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000064010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22620,7 +21215,7 @@
         <xdr:cNvPr id="357" name="テキスト ボックス 356">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000065010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000065010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22693,7 +21288,7 @@
         <xdr:cNvPr id="358" name="テキスト ボックス 357">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000066010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000066010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22766,7 +21361,7 @@
         <xdr:cNvPr id="360" name="テキスト ボックス 359">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000068010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000068010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22844,7 +21439,7 @@
         <xdr:cNvPr id="361" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000069010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000069010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22902,7 +21497,7 @@
         <xdr:cNvPr id="362" name="テキスト ボックス 361">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00006A010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00006A010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22977,7 +21572,7 @@
         <xdr:cNvPr id="363" name="円/楕円 362">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00006B010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00006B010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23039,7 +21634,7 @@
         <xdr:cNvPr id="364" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00006C010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00006C010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23099,7 +21694,7 @@
         <xdr:cNvPr id="365" name="円/楕円 364">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00006D010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00006D010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23156,7 +21751,7 @@
         <xdr:cNvPr id="366" name="テキスト ボックス 365">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00006E010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00006E010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23232,7 +21827,7 @@
         <xdr:cNvPr id="367" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00006F010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00006F010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23292,7 +21887,7 @@
         <xdr:cNvPr id="368" name="円/楕円 367">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000070010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000070010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23349,7 +21944,7 @@
         <xdr:cNvPr id="369" name="テキスト ボックス 368">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000071010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000071010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23425,7 +22020,7 @@
         <xdr:cNvPr id="372" name="円/楕円 371">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000074010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000074010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23487,7 +22082,7 @@
         <xdr:cNvPr id="442" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000BA010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000BA010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23579,7 +22174,7 @@
         <xdr:cNvPr id="443" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000BB010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000BB010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23666,7 +22261,7 @@
         <xdr:cNvPr id="444" name="テキスト ボックス 443">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000BC010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000BC010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23740,7 +22335,7 @@
         <xdr:cNvPr id="445" name="テキスト ボックス 444">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000BD010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000BD010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23818,7 +22413,7 @@
         <xdr:cNvPr id="446" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000BE010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000BE010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23881,7 +22476,7 @@
         <xdr:cNvPr id="447" name="グループ化 446">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000BF010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000BF010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23900,7 +22495,7 @@
           <xdr:cNvPr id="448" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000C0010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000C0010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -23977,7 +22572,7 @@
           <xdr:cNvPr id="449" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000C1010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000C1010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -24054,7 +22649,7 @@
           <xdr:cNvPr id="450" name="テキスト ボックス 449">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000C2010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000C2010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -24114,7 +22709,7 @@
           <xdr:cNvPr id="452" name="直線矢印コネクタ 451">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000C4010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000C4010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -24176,7 +22771,7 @@
         <xdr:cNvPr id="454" name="直線矢印コネクタ 164">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000C6010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000C6010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24237,7 +22832,7 @@
         <xdr:cNvPr id="455" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000C7010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000C7010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24299,7 +22894,7 @@
         <xdr:cNvPr id="456" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000C8010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000C8010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24354,7 +22949,7 @@
         <xdr:cNvPr id="457" name="テキスト ボックス 456">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000C9010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000C9010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24433,7 +23028,7 @@
         <xdr:cNvPr id="458" name="直線矢印コネクタ 457">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000CA010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000CA010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24491,7 +23086,7 @@
         <xdr:cNvPr id="459" name="グループ化 458">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000CB010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000CB010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24510,7 +23105,7 @@
           <xdr:cNvPr id="460" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000CC010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000CC010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -24600,7 +23195,7 @@
           <xdr:cNvPr id="461" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000CD010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000CD010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -24677,7 +23272,7 @@
           <xdr:cNvPr id="462" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000CE010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000CE010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -24754,7 +23349,7 @@
           <xdr:cNvPr id="463" name="テキスト ボックス 462">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000CF010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000CF010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -24818,7 +23413,7 @@
           <xdr:cNvPr id="464" name="直線矢印コネクタ 463">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D0010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D0010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -24864,7 +23459,7 @@
           <xdr:cNvPr id="465" name="テキスト ボックス 464">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D1010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D1010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -24928,7 +23523,7 @@
           <xdr:cNvPr id="466" name="直線矢印コネクタ 465">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D2010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D2010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -24971,7 +23566,7 @@
           <xdr:cNvPr id="467" name="テキスト ボックス 466">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D3010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D3010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25034,7 +23629,7 @@
           <xdr:cNvPr id="468" name="直線矢印コネクタ 467">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D4010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D4010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25088,7 +23683,7 @@
         <xdr:cNvPr id="469" name="テキスト ボックス 468">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D5010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D5010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25167,7 +23762,7 @@
         <xdr:cNvPr id="470" name="グループ化 469">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D6010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D6010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25186,7 +23781,7 @@
           <xdr:cNvPr id="471" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D7010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D7010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25263,7 +23858,7 @@
           <xdr:cNvPr id="472" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D8010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D8010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25340,7 +23935,7 @@
           <xdr:cNvPr id="473" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D9010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D9010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25417,7 +24012,7 @@
           <xdr:cNvPr id="474" name="テキスト ボックス 473">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000DA010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000DA010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25481,7 +24076,7 @@
           <xdr:cNvPr id="475" name="テキスト ボックス 474">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000DB010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000DB010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25544,7 +24139,7 @@
           <xdr:cNvPr id="476" name="直線矢印コネクタ 475">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000DC010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000DC010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25587,7 +24182,7 @@
           <xdr:cNvPr id="477" name="直線矢印コネクタ 476">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000DD010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000DD010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25630,7 +24225,7 @@
           <xdr:cNvPr id="478" name="テキスト ボックス 477">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000DE010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000DE010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25694,7 +24289,7 @@
           <xdr:cNvPr id="479" name="直線矢印コネクタ 478">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000DF010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000DF010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25748,7 +24343,7 @@
         <xdr:cNvPr id="480" name="テキスト ボックス 479">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000E0010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000E0010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25837,7 +24432,7 @@
         <xdr:cNvPr id="481" name="テキスト ボックス 480">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000E1010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000E1010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25916,7 +24511,7 @@
         <xdr:cNvPr id="482" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000E2010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000E2010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25974,7 +24569,7 @@
         <xdr:cNvPr id="483" name="円/楕円 482">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000E3010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000E3010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26036,7 +24631,7 @@
         <xdr:cNvPr id="484" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000E4010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000E4010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26097,7 +24692,7 @@
         <xdr:cNvPr id="485" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000E5010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000E5010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26157,7 +24752,7 @@
         <xdr:cNvPr id="486" name="円/楕円 485">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000E6010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000E6010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26213,7 +24808,7 @@
         <xdr:cNvPr id="487" name="テキスト ボックス 486">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000E7010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000E7010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26288,7 +24883,7 @@
         <xdr:cNvPr id="488" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000E8010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000E8010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26349,7 +24944,7 @@
         <xdr:cNvPr id="489" name="円/楕円 488">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000E9010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000E9010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26411,7 +25006,7 @@
         <xdr:cNvPr id="490" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000EA010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000EA010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26472,7 +25067,7 @@
         <xdr:cNvPr id="491" name="円/楕円 490">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000EB010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000EB010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26534,7 +25129,7 @@
         <xdr:cNvPr id="493" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000ED010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000ED010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26589,7 +25184,7 @@
         <xdr:cNvPr id="494" name="テキスト ボックス 493">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000EE010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000EE010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26662,7 +25257,7 @@
         <xdr:cNvPr id="495" name="テキスト ボックス 494">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000EF010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000EF010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26735,7 +25330,7 @@
         <xdr:cNvPr id="497" name="テキスト ボックス 496">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000F1010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000F1010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26813,7 +25408,7 @@
         <xdr:cNvPr id="498" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000F2010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000F2010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26871,7 +25466,7 @@
         <xdr:cNvPr id="499" name="テキスト ボックス 498">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000F3010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000F3010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26946,7 +25541,7 @@
         <xdr:cNvPr id="500" name="円/楕円 499">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000F4010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000F4010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27008,7 +25603,7 @@
         <xdr:cNvPr id="501" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000F5010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000F5010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27068,7 +25663,7 @@
         <xdr:cNvPr id="502" name="円/楕円 501">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000F6010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000F6010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27125,7 +25720,7 @@
         <xdr:cNvPr id="503" name="テキスト ボックス 502">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000F7010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000F7010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27204,7 +25799,7 @@
         <xdr:cNvPr id="504" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000F8010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000F8010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27264,7 +25859,7 @@
         <xdr:cNvPr id="505" name="円/楕円 504">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000F9010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000F9010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27321,7 +25916,7 @@
         <xdr:cNvPr id="506" name="テキスト ボックス 505">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000FA010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000FA010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27397,7 +25992,7 @@
         <xdr:cNvPr id="508" name="円/楕円 507">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000FC010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000FC010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27459,7 +26054,7 @@
         <xdr:cNvPr id="510" name="円/楕円 509">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000FE010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000FE010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27521,7 +26116,7 @@
         <xdr:cNvPr id="511" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000FF010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000FF010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27576,7 +26171,7 @@
         <xdr:cNvPr id="515" name="テキスト ボックス 514">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003020000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003020000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27661,7 +26256,7 @@
         <xdr:cNvPr id="256" name="Rounded Rectangle 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000000010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000000010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27753,7 +26348,7 @@
         <xdr:cNvPr id="257" name="Rounded Rectangle 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000001010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27840,7 +26435,7 @@
         <xdr:cNvPr id="258" name="テキスト ボックス 257">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27911,7 +26506,7 @@
         <xdr:cNvPr id="259" name="テキスト ボックス 258">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27986,7 +26581,7 @@
         <xdr:cNvPr id="263" name="直線矢印コネクタ 262">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000007010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28044,7 +26639,7 @@
         <xdr:cNvPr id="298" name="直線矢印コネクタ 297">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002A010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002A010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28097,7 +26692,7 @@
         <xdr:cNvPr id="371" name="テキスト ボックス 370">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000073010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000073010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28199,7 +26794,7 @@
         <xdr:cNvPr id="374" name="円/楕円 373">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000076010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000076010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28261,7 +26856,7 @@
         <xdr:cNvPr id="375" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000077010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000077010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28317,7 +26912,7 @@
         <xdr:cNvPr id="376" name="テキスト ボックス 375">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000078010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000078010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28414,7 +27009,7 @@
         <xdr:cNvPr id="377" name="テキスト ボックス 376">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000079010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000079010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28516,7 +27111,7 @@
         <xdr:cNvPr id="215" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBA09F60-1C38-4319-9D42-2D14A8AE9DE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EBA09F60-1C38-4319-9D42-2D14A8AE9DE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28574,7 +27169,7 @@
         <xdr:cNvPr id="216" name="円/楕円 289">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB5159FF-A7CD-45BA-85AE-1681AC3AC650}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB5159FF-A7CD-45BA-85AE-1681AC3AC650}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28636,7 +27231,7 @@
         <xdr:cNvPr id="221" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E454E49-9569-441C-BC4C-B5F5FDD7AA89}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8E454E49-9569-441C-BC4C-B5F5FDD7AA89}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28694,7 +27289,7 @@
         <xdr:cNvPr id="222" name="円/楕円 364">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70B001FB-5286-4E8B-8A0B-25AB45C59D55}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{70B001FB-5286-4E8B-8A0B-25AB45C59D55}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28756,7 +27351,7 @@
         <xdr:cNvPr id="223" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{803C4659-22C1-4B7B-A164-A7822B7A2751}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{803C4659-22C1-4B7B-A164-A7822B7A2751}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28814,7 +27409,7 @@
         <xdr:cNvPr id="224" name="円/楕円 501">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A5C66BE-0014-4780-8B2B-93AE854393A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6A5C66BE-0014-4780-8B2B-93AE854393A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28974,7 +27569,7 @@
         <xdr:cNvPr id="225" name="円/楕円 224">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002E010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002E010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29031,7 +27626,7 @@
         <xdr:cNvPr id="226" name="テキスト ボックス 225">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002C010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002C010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29109,7 +27704,7 @@
         <xdr:cNvPr id="227" name="Rounded Rectangle 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000000010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000000010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29196,7 +27791,7 @@
         <xdr:cNvPr id="228" name="テキスト ボックス 227">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000073010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000073010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29298,7 +27893,7 @@
         <xdr:cNvPr id="229" name="円/楕円 228">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000076010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000076010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29360,7 +27955,7 @@
         <xdr:cNvPr id="230" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000077010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000077010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29416,7 +28011,7 @@
         <xdr:cNvPr id="231" name="テキスト ボックス 230">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29493,7 +28088,7 @@
         <xdr:cNvPr id="232" name="テキスト ボックス 231">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29568,7 +28163,7 @@
         <xdr:cNvPr id="233" name="直線矢印コネクタ 232">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000007010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29626,7 +28221,7 @@
         <xdr:cNvPr id="234" name="直線矢印コネクタ 233">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002A010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002A010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29684,7 +28279,7 @@
         <xdr:cNvPr id="235" name="Rounded Rectangle 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000000010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000000010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29771,7 +28366,7 @@
         <xdr:cNvPr id="244" name="テキスト ボックス 243">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000B010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29961,7 +28556,7 @@
         <xdr:cNvPr id="99" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000063000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000063000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30053,7 +28648,7 @@
         <xdr:cNvPr id="104" name="Rounded Rectangle 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000068000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000068000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30145,7 +28740,7 @@
         <xdr:cNvPr id="106" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00006A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30232,7 +28827,7 @@
         <xdr:cNvPr id="113" name="テキスト ボックス 112">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000071000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000071000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30306,7 +28901,7 @@
         <xdr:cNvPr id="114" name="テキスト ボックス 113">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000072000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000072000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30384,7 +28979,7 @@
         <xdr:cNvPr id="115" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000073000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000073000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30447,7 +29042,7 @@
         <xdr:cNvPr id="119" name="直線矢印コネクタ 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000077000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000077000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30503,7 +29098,7 @@
         <xdr:cNvPr id="120" name="テキスト ボックス 119">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000078000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000078000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30581,7 +29176,7 @@
         <xdr:cNvPr id="4" name="グループ化 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30600,7 +29195,7 @@
           <xdr:cNvPr id="121" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000079000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000079000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -30677,7 +29272,7 @@
           <xdr:cNvPr id="122" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00007A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00007A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -30754,7 +29349,7 @@
           <xdr:cNvPr id="123" name="テキスト ボックス 122">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00007B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00007B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -30814,7 +29409,7 @@
           <xdr:cNvPr id="126" name="直線矢印コネクタ 125">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00007E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00007E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -30873,7 +29468,7 @@
         <xdr:cNvPr id="129" name="直線矢印コネクタ 164">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000081000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000081000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30933,7 +29528,7 @@
         <xdr:cNvPr id="131" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000083000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000083000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30996,7 +29591,7 @@
         <xdr:cNvPr id="132" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000084000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000084000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31049,7 +29644,7 @@
         <xdr:cNvPr id="134" name="テキスト ボックス 133">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000086000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000086000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31125,7 +29720,7 @@
         <xdr:cNvPr id="138" name="直線矢印コネクタ 137">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00008A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00008A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31183,7 +29778,7 @@
         <xdr:cNvPr id="3" name="グループ化 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31202,7 +29797,7 @@
           <xdr:cNvPr id="107" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00006B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -31279,7 +29874,7 @@
           <xdr:cNvPr id="108" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00006C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -31356,7 +29951,7 @@
           <xdr:cNvPr id="109" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00006D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -31433,7 +30028,7 @@
           <xdr:cNvPr id="116" name="テキスト ボックス 115">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000074000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000074000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -31497,7 +30092,7 @@
           <xdr:cNvPr id="117" name="直線矢印コネクタ 116">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000075000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000075000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -31543,7 +30138,7 @@
           <xdr:cNvPr id="136" name="テキスト ボックス 135">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000088000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000088000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -31607,7 +30202,7 @@
           <xdr:cNvPr id="137" name="直線矢印コネクタ 136">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000089000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000089000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -31650,7 +30245,7 @@
           <xdr:cNvPr id="139" name="テキスト ボックス 138">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00008B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00008B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -31713,7 +30308,7 @@
           <xdr:cNvPr id="140" name="直線矢印コネクタ 139">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00008C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00008C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -31767,7 +30362,7 @@
         <xdr:cNvPr id="51" name="テキスト ボックス 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000033000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31843,7 +30438,7 @@
         <xdr:cNvPr id="2" name="グループ化 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31862,7 +30457,7 @@
           <xdr:cNvPr id="100" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000064000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000064000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -31939,7 +30534,7 @@
           <xdr:cNvPr id="101" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000065000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000065000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -32016,7 +30611,7 @@
           <xdr:cNvPr id="103" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000067000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000067000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -32093,7 +30688,7 @@
           <xdr:cNvPr id="44" name="テキスト ボックス 43">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00002C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -32157,7 +30752,7 @@
           <xdr:cNvPr id="45" name="テキスト ボックス 44">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00002D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -32220,7 +30815,7 @@
           <xdr:cNvPr id="46" name="直線矢印コネクタ 45">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00002E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -32263,7 +30858,7 @@
           <xdr:cNvPr id="47" name="直線矢印コネクタ 46">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00002F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -32306,7 +30901,7 @@
           <xdr:cNvPr id="52" name="テキスト ボックス 51">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000034000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000034000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -32370,7 +30965,7 @@
           <xdr:cNvPr id="53" name="直線矢印コネクタ 52">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000035000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000035000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -32424,7 +31019,7 @@
         <xdr:cNvPr id="71" name="テキスト ボックス 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000047000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000047000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32497,7 +31092,7 @@
         <xdr:cNvPr id="74" name="テキスト ボックス 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00004A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00004A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32576,7 +31171,7 @@
         <xdr:cNvPr id="82" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000052000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000052000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32634,7 +31229,7 @@
         <xdr:cNvPr id="92" name="円/楕円 91">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00005C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00005C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32696,7 +31291,7 @@
         <xdr:cNvPr id="94" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00005E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00005E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32757,7 +31352,7 @@
         <xdr:cNvPr id="118" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000076000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000076000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32817,7 +31412,7 @@
         <xdr:cNvPr id="141" name="円/楕円 140">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00008D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00008D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32874,7 +31469,7 @@
         <xdr:cNvPr id="145" name="テキスト ボックス 144">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000091000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000091000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32949,7 +31544,7 @@
         <xdr:cNvPr id="72" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000048000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000048000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33010,7 +31605,7 @@
         <xdr:cNvPr id="73" name="円/楕円 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000049000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000049000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33072,7 +31667,7 @@
         <xdr:cNvPr id="75" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00004B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00004B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33132,7 +31727,7 @@
         <xdr:cNvPr id="76" name="円/楕円 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00004C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00004C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33194,7 +31789,7 @@
         <xdr:cNvPr id="81" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000051000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000051000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33249,7 +31844,7 @@
         <xdr:cNvPr id="84" name="テキスト ボックス 83">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000054000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000054000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33322,7 +31917,7 @@
         <xdr:cNvPr id="85" name="テキスト ボックス 84">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000055000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000055000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33395,7 +31990,7 @@
         <xdr:cNvPr id="89" name="テキスト ボックス 88">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000059000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000059000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33473,7 +32068,7 @@
         <xdr:cNvPr id="91" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00005B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00005B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33531,7 +32126,7 @@
         <xdr:cNvPr id="95" name="テキスト ボックス 94">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00005F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00005F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33606,7 +32201,7 @@
         <xdr:cNvPr id="102" name="円/楕円 101">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000066000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000066000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33668,7 +32263,7 @@
         <xdr:cNvPr id="111" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00006F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33728,7 +32323,7 @@
         <xdr:cNvPr id="112" name="円/楕円 111">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000070000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000070000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33785,7 +32380,7 @@
         <xdr:cNvPr id="147" name="テキスト ボックス 146">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000093000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000093000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33861,7 +32456,7 @@
         <xdr:cNvPr id="155" name="円/楕円 154">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00009B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00009B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33923,7 +32518,7 @@
         <xdr:cNvPr id="156" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00009C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00009C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33983,7 +32578,7 @@
         <xdr:cNvPr id="157" name="円/楕円 156">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00009D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00009D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34040,7 +32635,7 @@
         <xdr:cNvPr id="158" name="テキスト ボックス 157">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00009E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00009E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34116,7 +32711,7 @@
         <xdr:cNvPr id="68" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE121FF4-57C1-4AE3-B948-CF94F7FCC18F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AE121FF4-57C1-4AE3-B948-CF94F7FCC18F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34174,7 +32769,7 @@
         <xdr:cNvPr id="69" name="円/楕円 111">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D1DB0A7-B0DF-4915-9924-F3B932238AA0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D1DB0A7-B0DF-4915-9924-F3B932238AA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34231,7 +32826,7 @@
         <xdr:cNvPr id="70" name="テキスト ボックス 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000B010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34416,7 +33011,7 @@
         <xdr:cNvPr id="78" name="テキスト ボックス 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34835,7 +33430,7 @@
   <dimension ref="B2:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.75" defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
@@ -34857,11 +33452,11 @@
       </c>
     </row>
     <row r="7" spans="2:4" ht="35.25" x14ac:dyDescent="0.8">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
     </row>
     <row r="8" spans="2:4" ht="33" x14ac:dyDescent="0.75">
       <c r="B8" s="11" t="s">
@@ -34869,31 +33464,31 @@
       </c>
     </row>
     <row r="14" spans="2:4" ht="17.25" x14ac:dyDescent="0.4">
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="D15" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="17.25" x14ac:dyDescent="0.4">
-      <c r="D15" s="18" t="s">
+    <row r="16" spans="2:4" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="D16" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="17.25" x14ac:dyDescent="0.4">
-      <c r="D16" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
     <row r="17" spans="2:4" ht="17.25" x14ac:dyDescent="0.4">
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="16" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -35290,8 +33885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AB102"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A79" zoomScaleNormal="71" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A18" zoomScaleNormal="71" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
